--- a/BiShang/ad/it/download_data/商品推广广告商品报告.xlsx
+++ b/BiShang/ad/it/download_data/商品推广广告商品报告.xlsx
@@ -84,14 +84,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.74609375" customWidth="true"/>
-    <col min="2" max="2" width="12.74609375" customWidth="true"/>
+    <col min="1" max="1" width="12.140625" customWidth="true"/>
+    <col min="2" max="2" width="12.140625" customWidth="true"/>
     <col min="3" max="3" width="4.29296875" customWidth="true"/>
     <col min="4" max="4" width="13.26171875" customWidth="true"/>
     <col min="5" max="5" width="16.23046875" customWidth="true"/>
     <col min="6" max="6" width="26.97265625" customWidth="true"/>
     <col min="7" max="7" width="13.6953125" customWidth="true"/>
-    <col min="8" max="8" width="7.72265625" customWidth="true"/>
+    <col min="8" max="8" width="6.74609375" customWidth="true"/>
     <col min="9" max="9" width="4.9375" customWidth="true"/>
     <col min="10" max="10" width="9.71875" customWidth="true"/>
     <col min="11" max="11" width="13.8046875" customWidth="true"/>
@@ -101,7 +101,7 @@
     <col min="15" max="15" width="13.41796875" customWidth="true"/>
     <col min="16" max="16" width="11.23046875" customWidth="true"/>
     <col min="17" max="17" width="11.23046875" customWidth="true"/>
-    <col min="18" max="18" width="10.6875" customWidth="true"/>
+    <col min="18" max="18" width="9.65234375" customWidth="true"/>
     <col min="19" max="19" width="17.43359375" customWidth="true"/>
     <col min="20" max="20" width="17.43359375" customWidth="true"/>
     <col min="21" max="21" width="17.65234375" customWidth="true"/>
@@ -222,10 +222,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
@@ -253,36 +253,30 @@
         </is>
       </c>
       <c r="H2" s="4" t="n">
-        <v>563.0</v>
+        <v>316.0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J2" s="6" t="n">
-        <v>0.0017761989342806395</v>
-      </c>
-      <c r="K2" s="9" t="n">
-        <v>0.02</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K2"/>
       <c r="L2" s="9" t="n">
-        <v>0.02</v>
+        <v>0.0</v>
       </c>
       <c r="M2" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N2"/>
-      <c r="O2" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O2"/>
       <c r="P2" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R2" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R2"/>
       <c r="S2" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -298,10 +292,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>43276.0</v>
+        <v>43284.0</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
@@ -329,7 +323,7 @@
         </is>
       </c>
       <c r="H3" s="4" t="n">
-        <v>15.0</v>
+        <v>27.0</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>0.0</v>
@@ -368,10 +362,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
@@ -399,19 +393,19 @@
         </is>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1116.0</v>
+        <v>1390.0</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.002688172043010753</v>
+        <v>7.194244604316547E-4</v>
       </c>
       <c r="K4" s="9" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.07</v>
       </c>
       <c r="L4" s="9" t="n">
-        <v>0.16</v>
+        <v>0.07</v>
       </c>
       <c r="M4" s="9" t="n">
         <v>0.0</v>
@@ -444,10 +438,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>43276.0</v>
+        <v>43284.0</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
@@ -475,46 +469,44 @@
         </is>
       </c>
       <c r="H5" s="4" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.0625</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K5" s="9" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="L5" s="9" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="M5" s="9" t="n">
-        <v>56.97</v>
-      </c>
-      <c r="N5" s="6" t="n">
-        <v>3.510619624363701E-4</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N5"/>
       <c r="O5" s="5" t="n">
-        <v>2848.5</v>
+        <v>0.0</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U5" s="9" t="n">
-        <v>56.97</v>
+        <v>0.0</v>
       </c>
       <c r="V5" s="9" t="n">
         <v>0.0</v>
@@ -522,10 +514,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
@@ -553,19 +545,19 @@
         </is>
       </c>
       <c r="H6" s="4" t="n">
-        <v>575.0</v>
+        <v>314.0</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.0017391304347826085</v>
+        <v>0.006369426751592358</v>
       </c>
       <c r="K6" s="9" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="L6" s="9" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="M6" s="9" t="n">
         <v>0.0</v>
@@ -598,10 +590,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
@@ -629,30 +621,36 @@
         </is>
       </c>
       <c r="H7" s="4" t="n">
-        <v>29.0</v>
+        <v>244.0</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K7"/>
+        <v>0.004098360655737705</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>0.06</v>
+      </c>
       <c r="L7" s="9" t="n">
-        <v>0.0</v>
+        <v>0.06</v>
       </c>
       <c r="M7" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N7"/>
-      <c r="O7"/>
+      <c r="O7" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P7" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q7" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R7"/>
+      <c r="R7" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S7" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -668,10 +666,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
@@ -699,55 +697,57 @@
         </is>
       </c>
       <c r="H8" s="4" t="n">
-        <v>1431.0</v>
+        <v>1037.0</v>
       </c>
       <c r="I8" s="4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.0057859209257473485</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>0.053333333333333344</v>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.016850974196945766</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>59.343749999999986</v>
+      </c>
+      <c r="P8" s="4" t="n">
         <v>1.0</v>
       </c>
-      <c r="J8" s="6" t="n">
-        <v>6.988120195667365E-4</v>
-      </c>
-      <c r="K8" s="9" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="L8" s="9" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="M8" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N8"/>
-      <c r="O8" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q8" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R8" s="6" t="n">
-        <v>0.0</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="S8" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U8" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V8" s="9" t="n">
-        <v>0.0</v>
+        <v>18.99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
@@ -775,19 +775,19 @@
         </is>
       </c>
       <c r="H9" s="4" t="n">
-        <v>648.0</v>
+        <v>592.0</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.004629629629629629</v>
+        <v>0.003378378378378378</v>
       </c>
       <c r="K9" s="9" t="n">
-        <v>0.04666666666666667</v>
+        <v>0.05</v>
       </c>
       <c r="L9" s="9" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="M9" s="9" t="n">
         <v>0.0</v>
@@ -820,10 +820,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="H10" s="4" t="n">
-        <v>142.0</v>
+        <v>196.0</v>
       </c>
       <c r="I10" s="4" t="n">
         <v>0.0</v>
@@ -890,10 +890,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
@@ -921,19 +921,19 @@
         </is>
       </c>
       <c r="H11" s="4" t="n">
-        <v>232.0</v>
+        <v>319.0</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.004310344827586207</v>
+        <v>0.009404388714733543</v>
       </c>
       <c r="K11" s="9" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="L11" s="9" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="M11" s="9" t="n">
         <v>0.0</v>
@@ -966,10 +966,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>43282.0</v>
+        <v>43288.0</v>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="H12" s="4" t="n">
-        <v>107.0</v>
+        <v>39.0</v>
       </c>
       <c r="I12" s="4" t="n">
         <v>0.0</v>
@@ -1036,10 +1036,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
@@ -1067,19 +1067,19 @@
         </is>
       </c>
       <c r="H13" s="4" t="n">
-        <v>662.0</v>
+        <v>172.0</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.0030211480362537764</v>
+        <v>0.01744186046511628</v>
       </c>
       <c r="K13" s="9" t="n">
-        <v>0.1</v>
+        <v>0.07666666666666666</v>
       </c>
       <c r="L13" s="9" t="n">
-        <v>0.2</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="M13" s="9" t="n">
         <v>0.0</v>
@@ -1112,10 +1112,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         </is>
       </c>
       <c r="H14" s="4" t="n">
-        <v>437.0</v>
+        <v>72.0</v>
       </c>
       <c r="I14" s="4" t="n">
         <v>0.0</v>
@@ -1182,10 +1182,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>43282.0</v>
+        <v>43284.0</v>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
@@ -1213,36 +1213,30 @@
         </is>
       </c>
       <c r="H15" s="4" t="n">
-        <v>203.0</v>
+        <v>4.0</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.014778325123152709</v>
-      </c>
-      <c r="K15" s="9" t="n">
-        <v>0.09000000000000001</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K15"/>
       <c r="L15" s="9" t="n">
-        <v>0.27</v>
+        <v>0.0</v>
       </c>
       <c r="M15" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N15"/>
-      <c r="O15" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O15"/>
       <c r="P15" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R15" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R15"/>
       <c r="S15" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1258,10 +1252,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
@@ -1289,36 +1283,30 @@
         </is>
       </c>
       <c r="H16" s="4" t="n">
-        <v>869.0</v>
+        <v>791.0</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.0011507479861910242</v>
-      </c>
-      <c r="K16" s="9" t="n">
-        <v>0.03</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K16"/>
       <c r="L16" s="9" t="n">
-        <v>0.03</v>
+        <v>0.0</v>
       </c>
       <c r="M16" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N16"/>
-      <c r="O16" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O16"/>
       <c r="P16" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R16" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R16"/>
       <c r="S16" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1334,10 +1322,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
@@ -1365,30 +1353,36 @@
         </is>
       </c>
       <c r="H17" s="4" t="n">
-        <v>216.0</v>
+        <v>405.0</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K17"/>
+        <v>0.0024691358024691358</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>0.06</v>
+      </c>
       <c r="L17" s="9" t="n">
-        <v>0.0</v>
+        <v>0.06</v>
       </c>
       <c r="M17" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N17"/>
-      <c r="O17"/>
+      <c r="O17" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P17" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R17"/>
+      <c r="R17" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S17" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1404,10 +1398,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
@@ -1435,19 +1429,19 @@
         </is>
       </c>
       <c r="H18" s="4" t="n">
-        <v>1274.0</v>
+        <v>1807.0</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.002354788069073783</v>
+        <v>0.0033204205866076367</v>
       </c>
       <c r="K18" s="9" t="n">
-        <v>0.02</v>
+        <v>0.03666666666666667</v>
       </c>
       <c r="L18" s="9" t="n">
-        <v>0.06</v>
+        <v>0.22</v>
       </c>
       <c r="M18" s="9" t="n">
         <v>0.0</v>
@@ -1480,10 +1474,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
@@ -1511,55 +1505,57 @@
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>3254.0</v>
+        <v>5306.0</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>9.0</v>
+        <v>27.0</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.0027658266748617085</v>
+        <v>0.005088578967206936</v>
       </c>
       <c r="K19" s="9" t="n">
-        <v>0.061111111111111116</v>
+        <v>0.06148148148148148</v>
       </c>
       <c r="L19" s="9" t="n">
-        <v>0.55</v>
+        <v>1.66</v>
       </c>
       <c r="M19" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N19"/>
+        <v>18.25</v>
+      </c>
+      <c r="N19" s="6" t="n">
+        <v>0.09095890410958903</v>
+      </c>
       <c r="O19" s="5" t="n">
-        <v>0.0</v>
+        <v>10.993975903614459</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R19" s="6" t="n">
-        <v>0.0</v>
+        <v>0.037037037037037035</v>
       </c>
       <c r="S19" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T19" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U19" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V19" s="9" t="n">
-        <v>0.0</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
@@ -1587,57 +1583,57 @@
         </is>
       </c>
       <c r="H20" s="4" t="n">
-        <v>7223.0</v>
+        <v>4323.0</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>17.0</v>
+        <v>40.0</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.002353592690017998</v>
+        <v>0.009252833680314597</v>
       </c>
       <c r="K20" s="9" t="n">
-        <v>0.15235294117647058</v>
+        <v>0.20375000000000001</v>
       </c>
       <c r="L20" s="9" t="n">
-        <v>2.59</v>
+        <v>8.15</v>
       </c>
       <c r="M20" s="9" t="n">
-        <v>38.88</v>
+        <v>22.99</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.06661522633744855</v>
+        <v>0.3545019573727708</v>
       </c>
       <c r="O20" s="5" t="n">
-        <v>15.011583011583014</v>
+        <v>2.820858895705521</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="R20" s="6" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.025</v>
       </c>
       <c r="S20" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T20" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U20" s="9" t="n">
-        <v>0.0</v>
+        <v>22.99</v>
       </c>
       <c r="V20" s="9" t="n">
-        <v>38.88</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
@@ -1665,55 +1661,57 @@
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>1953.0</v>
+        <v>8364.0</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>15.0</v>
+        <v>48.0</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.007680491551459293</v>
+        <v>0.005738880918220948</v>
       </c>
       <c r="K21" s="9" t="n">
-        <v>0.17400000000000002</v>
+        <v>0.189375</v>
       </c>
       <c r="L21" s="9" t="n">
-        <v>2.6100000000000003</v>
+        <v>9.09</v>
       </c>
       <c r="M21" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N21"/>
+        <v>38.879999999999995</v>
+      </c>
+      <c r="N21" s="6" t="n">
+        <v>0.2337962962962963</v>
+      </c>
       <c r="O21" s="5" t="n">
-        <v>0.0</v>
+        <v>4.277227722772277</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R21" s="6" t="n">
-        <v>0.0</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="S21" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T21" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U21" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V21" s="9" t="n">
-        <v>0.0</v>
+        <v>38.879999999999995</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>43276.0</v>
+        <v>43286.0</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
@@ -1727,71 +1725,69 @@
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>BSLL</t>
+          <t>5119</t>
         </is>
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-BSLLHTM</t>
+          <t>YZ-BS-BShyl5119K0M</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>B01F3E3GAI</t>
+          <t>B01EJ5VO38</t>
         </is>
       </c>
       <c r="H22" s="4" t="n">
-        <v>16917.0</v>
+        <v>1581.0</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>48.0</v>
+        <v>9.0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.002837382514630253</v>
+        <v>0.0056925996204933585</v>
       </c>
       <c r="K22" s="9" t="n">
-        <v>0.17520833333333333</v>
+        <v>0.17666666666666664</v>
       </c>
       <c r="L22" s="9" t="n">
-        <v>8.41</v>
+        <v>1.5899999999999999</v>
       </c>
       <c r="M22" s="9" t="n">
-        <v>18.99</v>
-      </c>
-      <c r="N22" s="6" t="n">
-        <v>0.44286466561348076</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N22"/>
       <c r="O22" s="5" t="n">
-        <v>2.258026159334126</v>
+        <v>0.0</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R22" s="6" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="S22" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T22" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U22" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V22" s="9" t="n">
-        <v>18.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>43282.0</v>
+        <v>43288.0</v>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
@@ -1819,57 +1815,55 @@
         </is>
       </c>
       <c r="H23" s="4" t="n">
-        <v>5064.0</v>
+        <v>9523.0</v>
       </c>
       <c r="I23" s="4" t="n">
         <v>16.0</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.00315955766192733</v>
+        <v>0.0016801428121390315</v>
       </c>
       <c r="K23" s="9" t="n">
-        <v>0.17062500000000003</v>
+        <v>0.195625</v>
       </c>
       <c r="L23" s="9" t="n">
-        <v>2.7300000000000004</v>
+        <v>3.13</v>
       </c>
       <c r="M23" s="9" t="n">
-        <v>18.99</v>
-      </c>
-      <c r="N23" s="6" t="n">
-        <v>0.14375987361769355</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N23"/>
       <c r="O23" s="5" t="n">
-        <v>6.956043956043954</v>
+        <v>0.0</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R23" s="6" t="n">
-        <v>0.0625</v>
+        <v>0.0</v>
       </c>
       <c r="S23" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T23" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U23" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V23" s="9" t="n">
-        <v>18.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
@@ -1897,44 +1891,46 @@
         </is>
       </c>
       <c r="H24" s="4" t="n">
-        <v>8005.0</v>
+        <v>19189.0</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>59.0</v>
+        <v>175.0</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.007370393504059962</v>
+        <v>0.009119808223461359</v>
       </c>
       <c r="K24" s="9" t="n">
-        <v>0.17796610169491528</v>
+        <v>0.17057142857142857</v>
       </c>
       <c r="L24" s="9" t="n">
-        <v>10.500000000000002</v>
+        <v>29.849999999999998</v>
       </c>
       <c r="M24" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N24"/>
+        <v>16.99</v>
+      </c>
+      <c r="N24" s="6" t="n">
+        <v>1.7569158328428487</v>
+      </c>
       <c r="O24" s="5" t="n">
-        <v>0.0</v>
+        <v>0.569179229480737</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R24" s="6" t="n">
-        <v>0.0</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="S24" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T24" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U24" s="9" t="n">
-        <v>0.0</v>
+        <v>16.99</v>
       </c>
       <c r="V24" s="9" t="n">
         <v>0.0</v>
@@ -1942,10 +1938,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>43282.0</v>
+        <v>43288.0</v>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
@@ -1973,57 +1969,55 @@
         </is>
       </c>
       <c r="H25" s="4" t="n">
-        <v>8160.0</v>
+        <v>14662.0</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>49.0</v>
+        <v>77.0</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.006004901960784315</v>
+        <v>0.00525167098622289</v>
       </c>
       <c r="K25" s="9" t="n">
-        <v>0.15897959183673468</v>
+        <v>0.16506493506493508</v>
       </c>
       <c r="L25" s="9" t="n">
-        <v>7.79</v>
+        <v>12.71</v>
       </c>
       <c r="M25" s="9" t="n">
-        <v>67.96</v>
-      </c>
-      <c r="N25" s="6" t="n">
-        <v>0.11462625073572691</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N25"/>
       <c r="O25" s="5" t="n">
-        <v>8.72400513478819</v>
+        <v>0.0</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="R25" s="6" t="n">
-        <v>0.0816326530612245</v>
+        <v>0.0</v>
       </c>
       <c r="S25" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T25" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="U25" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V25" s="9" t="n">
-        <v>67.96</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
@@ -2032,26 +2026,26 @@
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>LYQ-ZD</t>
+          <t>YZ-ZD</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>1580</t>
+          <t>2037</t>
         </is>
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-1580-NB-M</t>
+          <t>YZ-BS-PW2037-R0-S</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>B01MZZGOLJ</t>
+          <t>B06W9HKFR6</t>
         </is>
       </c>
       <c r="H26" s="4" t="n">
-        <v>68.0</v>
+        <v>4.0</v>
       </c>
       <c r="I26" s="4" t="n">
         <v>0.0</v>
@@ -2090,10 +2084,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>43276.0</v>
+        <v>43286.0</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
@@ -2107,21 +2101,21 @@
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>1580</t>
         </is>
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-K1010-G0-XS</t>
+          <t>YZ-BS-1580-K0-M</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>B01MQPQALH</t>
+          <t>B01NBES3YP</t>
         </is>
       </c>
       <c r="H27" s="4" t="n">
-        <v>49.0</v>
+        <v>31.0</v>
       </c>
       <c r="I27" s="4" t="n">
         <v>0.0</v>
@@ -2160,10 +2154,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
@@ -2177,44 +2171,50 @@
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>1580</t>
         </is>
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-K1010-G7-XS</t>
+          <t>YZ-BS-1580-NB-M</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>B01MS11C7L</t>
+          <t>B01MZZGOLJ</t>
         </is>
       </c>
       <c r="H28" s="4" t="n">
-        <v>337.0</v>
+        <v>59.0</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K28"/>
+        <v>0.01694915254237288</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>0.08</v>
+      </c>
       <c r="L28" s="9" t="n">
-        <v>0.0</v>
+        <v>0.08</v>
       </c>
       <c r="M28" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N28"/>
-      <c r="O28"/>
+      <c r="O28" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P28" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q28" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R28"/>
+      <c r="R28" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S28" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2230,10 +2230,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
@@ -2252,45 +2252,39 @@
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-K1010-K0-XS</t>
+          <t>LYQ-BS-K1010-G0-XS</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
         <is>
-          <t>B01KO0S9LM</t>
+          <t>B01MQPQALH</t>
         </is>
       </c>
       <c r="H29" s="4" t="n">
-        <v>183.0</v>
+        <v>54.0</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.005464480874316941</v>
-      </c>
-      <c r="K29" s="9" t="n">
-        <v>0.02</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K29"/>
       <c r="L29" s="9" t="n">
-        <v>0.02</v>
+        <v>0.0</v>
       </c>
       <c r="M29" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N29"/>
-      <c r="O29" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O29"/>
       <c r="P29" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q29" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R29" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R29"/>
       <c r="S29" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2306,10 +2300,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
@@ -2328,39 +2322,45 @@
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-K1010-P0-XS</t>
+          <t>LYQ-BS-K1010-G7-XS</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>B017X47TA4</t>
+          <t>B01MS11C7L</t>
         </is>
       </c>
       <c r="H30" s="4" t="n">
-        <v>65.0</v>
+        <v>196.0</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K30"/>
+        <v>0.005102040816326531</v>
+      </c>
+      <c r="K30" s="9" t="n">
+        <v>0.02</v>
+      </c>
       <c r="L30" s="9" t="n">
-        <v>0.0</v>
+        <v>0.02</v>
       </c>
       <c r="M30" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N30"/>
-      <c r="O30"/>
+      <c r="O30" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P30" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q30" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R30"/>
+      <c r="R30" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S30" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2376,10 +2376,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
@@ -2398,64 +2398,66 @@
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-K1010-R0-XS</t>
+          <t>LYQ-BS-K1010-K0-XS</t>
         </is>
       </c>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t>B01N5J3B2Z</t>
+          <t>B01KO0S9LM</t>
         </is>
       </c>
       <c r="H31" s="4" t="n">
-        <v>118.0</v>
+        <v>134.0</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>0.00847457627118644</v>
+        <v>0.029850746268656712</v>
       </c>
       <c r="K31" s="9" t="n">
         <v>0.02</v>
       </c>
       <c r="L31" s="9" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="M31" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N31"/>
+        <v>15.98</v>
+      </c>
+      <c r="N31" s="6" t="n">
+        <v>0.0050062578222778474</v>
+      </c>
       <c r="O31" s="5" t="n">
-        <v>0.0</v>
+        <v>199.75</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R31" s="6" t="n">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="S31" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T31" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U31" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V31" s="9" t="n">
-        <v>0.0</v>
+        <v>15.98</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
@@ -2474,45 +2476,39 @@
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-K1010-W0-XS</t>
+          <t>LYQ-BS-K1010-P0-XS</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>B01KO0S9JO</t>
+          <t>B017X47TA4</t>
         </is>
       </c>
       <c r="H32" s="4" t="n">
-        <v>250.0</v>
+        <v>58.0</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="K32" s="9" t="n">
-        <v>0.02</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K32"/>
       <c r="L32" s="9" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
       <c r="M32" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N32"/>
-      <c r="O32" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O32"/>
       <c r="P32" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q32" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R32" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R32"/>
       <c r="S32" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2528,10 +2524,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
@@ -2550,16 +2546,16 @@
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-K1010-Z0-XS</t>
+          <t>LYQ-BS-K1010-R0-XS</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t>B06XZ37ZL7</t>
+          <t>B01N5J3B2Z</t>
         </is>
       </c>
       <c r="H33" s="4" t="n">
-        <v>25.0</v>
+        <v>95.0</v>
       </c>
       <c r="I33" s="4" t="n">
         <v>0.0</v>
@@ -2598,10 +2594,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
@@ -2610,49 +2606,55 @@
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>LYQ-SD</t>
+          <t>LYQ-ZD</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>2973</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-ZQ2973-E0-S</t>
+          <t>LYQ-BS-K1010-W0-XS</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>B01N95R09H</t>
+          <t>B01KO0S9JO</t>
         </is>
       </c>
       <c r="H34" s="4" t="n">
-        <v>171.0</v>
+        <v>128.0</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K34"/>
+        <v>0.03125</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>0.02</v>
+      </c>
       <c r="L34" s="9" t="n">
-        <v>0.0</v>
+        <v>0.08</v>
       </c>
       <c r="M34" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N34"/>
-      <c r="O34"/>
+      <c r="O34" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P34" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q34" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R34"/>
+      <c r="R34" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S34" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2668,10 +2670,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
@@ -2680,55 +2682,49 @@
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>LYQ-SD</t>
+          <t>LYQ-ZD</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>2973</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-ZQ2973-K0-S</t>
+          <t>LYQ-BS-K1010-Z0-XS</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
         <is>
-          <t>B01N0VKLGT</t>
+          <t>B06XZ37ZL7</t>
         </is>
       </c>
       <c r="H35" s="4" t="n">
-        <v>657.0</v>
+        <v>24.0</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>0.0045662100456621</v>
-      </c>
-      <c r="K35" s="9" t="n">
-        <v>0.16333333333333333</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K35"/>
       <c r="L35" s="9" t="n">
-        <v>0.49</v>
+        <v>0.0</v>
       </c>
       <c r="M35" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N35"/>
-      <c r="O35" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O35"/>
       <c r="P35" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q35" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R35" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R35"/>
       <c r="S35" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2744,10 +2740,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
@@ -2766,16 +2762,16 @@
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-ZQ2973-KQ-S</t>
+          <t>LYQ-BS-ZQ2973-E0-S</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t>B01N76B2TU</t>
+          <t>B01N95R09H</t>
         </is>
       </c>
       <c r="H36" s="4" t="n">
-        <v>43.0</v>
+        <v>372.0</v>
       </c>
       <c r="I36" s="4" t="n">
         <v>0.0</v>
@@ -2814,10 +2810,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43282.0</v>
+        <v>43286.0</v>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
@@ -2826,26 +2822,26 @@
       </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>LYQ-ZD</t>
+          <t>LYQ-SD</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr">
         <is>
-          <t>4600</t>
+          <t>2973</t>
         </is>
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS4600-B0-XS</t>
+          <t>LYQ-BS-ZQ2973-K0-S</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
         <is>
-          <t>B01MZ7Y9AO</t>
+          <t>B01N0VKLGT</t>
         </is>
       </c>
       <c r="H37" s="4" t="n">
-        <v>8.0</v>
+        <v>205.0</v>
       </c>
       <c r="I37" s="4" t="n">
         <v>0.0</v>
@@ -2884,10 +2880,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
@@ -2896,26 +2892,26 @@
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>LYQ-ZD</t>
+          <t>LYQ-SD</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr">
         <is>
-          <t>4600</t>
+          <t>2973</t>
         </is>
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS4600-G0-XS</t>
+          <t>LYQ-BS-ZQ2973-KQ-S</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
         <is>
-          <t>B01N6P1I5Z</t>
+          <t>B01N76B2TU</t>
         </is>
       </c>
       <c r="H38" s="4" t="n">
-        <v>18.0</v>
+        <v>145.0</v>
       </c>
       <c r="I38" s="4" t="n">
         <v>0.0</v>
@@ -2954,10 +2950,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>43280.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
@@ -2976,16 +2972,16 @@
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS4600-G1-XS</t>
+          <t>LYQ-BS4600-B0-XS</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>B01MT79IFZ</t>
+          <t>B01MZ7Y9AO</t>
         </is>
       </c>
       <c r="H39" s="4" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="I39" s="4" t="n">
         <v>0.0</v>
@@ -3024,10 +3020,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
@@ -3046,45 +3042,39 @@
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS4600-N0-XS</t>
+          <t>LYQ-BS4600-G0-XS</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t>B01N9PTUNY</t>
+          <t>B01N6P1I5Z</t>
         </is>
       </c>
       <c r="H40" s="4" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J40" s="6" t="n">
-        <v>0.043478260869565216</v>
-      </c>
-      <c r="K40" s="9" t="n">
-        <v>0.02</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K40"/>
       <c r="L40" s="9" t="n">
-        <v>0.02</v>
+        <v>0.0</v>
       </c>
       <c r="M40" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N40"/>
-      <c r="O40" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O40"/>
       <c r="P40" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R40" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R40"/>
       <c r="S40" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3100,10 +3090,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
@@ -3122,16 +3112,16 @@
       </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS4600-P0-S</t>
+          <t>LYQ-BS4600-G1-XS</t>
         </is>
       </c>
       <c r="G41" s="1" t="inlineStr">
         <is>
-          <t>B01N7OGTT9</t>
+          <t>B01MT79IFZ</t>
         </is>
       </c>
       <c r="H41" s="4" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="I41" s="4" t="n">
         <v>0.0</v>
@@ -3170,10 +3160,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
@@ -3187,21 +3177,21 @@
       </c>
       <c r="E42" s="1" t="inlineStr">
         <is>
-          <t>2973</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-ZQ2973-BD-S</t>
+          <t>LYQ-BS4600-N0-XS</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr">
         <is>
-          <t>B01N53S3NF</t>
+          <t>B01N9PTUNY</t>
         </is>
       </c>
       <c r="H42" s="4" t="n">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="I42" s="4" t="n">
         <v>0.0</v>
@@ -3240,10 +3230,10 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>43277.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
@@ -3257,21 +3247,21 @@
       </c>
       <c r="E43" s="1" t="inlineStr">
         <is>
-          <t>2973</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-ZQ2973-E0-S</t>
+          <t>LYQ-BS4600-P0-S</t>
         </is>
       </c>
       <c r="G43" s="1" t="inlineStr">
         <is>
-          <t>B01N95R09H</t>
+          <t>B01N7OGTT9</t>
         </is>
       </c>
       <c r="H43" s="4" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="I43" s="4" t="n">
         <v>0.0</v>
@@ -3310,10 +3300,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
@@ -3332,16 +3322,16 @@
       </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-ZQ2973-G7-S</t>
+          <t>LYQ-BS-ZQ2973-BD-S</t>
         </is>
       </c>
       <c r="G44" s="1" t="inlineStr">
         <is>
-          <t>B01MT3SIVR</t>
+          <t>B01N53S3NF</t>
         </is>
       </c>
       <c r="H44" s="4" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="I44" s="4" t="n">
         <v>0.0</v>
@@ -3380,10 +3370,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
@@ -3402,16 +3392,16 @@
       </c>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-ZQ2973-K0-S</t>
+          <t>LYQ-BS-ZQ2973-E0-S</t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr">
         <is>
-          <t>B01N0VKLGT</t>
+          <t>B01N95R09H</t>
         </is>
       </c>
       <c r="H45" s="4" t="n">
-        <v>54.0</v>
+        <v>19.0</v>
       </c>
       <c r="I45" s="4" t="n">
         <v>0.0</v>
@@ -3450,10 +3440,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>43277.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
@@ -3472,16 +3462,16 @@
       </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-ZQ2973-KQ-S</t>
+          <t>LYQ-BS-ZQ2973-G7-S</t>
         </is>
       </c>
       <c r="G46" s="1" t="inlineStr">
         <is>
-          <t>B01N76B2TU</t>
+          <t>B01MT3SIVR</t>
         </is>
       </c>
       <c r="H46" s="4" t="n">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="I46" s="4" t="n">
         <v>0.0</v>
@@ -3520,10 +3510,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>43282.0</v>
+        <v>43286.0</v>
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
@@ -3542,16 +3532,16 @@
       </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-ZQ2973-W1-S</t>
+          <t>LYQ-BS-ZQ2973-K0-S</t>
         </is>
       </c>
       <c r="G47" s="1" t="inlineStr">
         <is>
-          <t>B01N42B1XD</t>
+          <t>B01N0VKLGT</t>
         </is>
       </c>
       <c r="H47" s="4" t="n">
-        <v>34.0</v>
+        <v>12.0</v>
       </c>
       <c r="I47" s="4" t="n">
         <v>0.0</v>
@@ -3590,10 +3580,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
@@ -3602,55 +3592,49 @@
       </c>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>LYQ-SD</t>
+          <t>LYQ-ZD</t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr">
         <is>
-          <t>048</t>
+          <t>2973</t>
         </is>
       </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>LYQ-CSM048-K0-S</t>
+          <t>LYQ-BS-ZQ2973-KQ-S</t>
         </is>
       </c>
       <c r="G48" s="1" t="inlineStr">
         <is>
-          <t>B074P3C5BJ</t>
+          <t>B01N76B2TU</t>
         </is>
       </c>
       <c r="H48" s="4" t="n">
-        <v>56.0</v>
+        <v>4.0</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J48" s="6" t="n">
-        <v>0.017857142857142856</v>
-      </c>
-      <c r="K48" s="9" t="n">
-        <v>0.05</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K48"/>
       <c r="L48" s="9" t="n">
-        <v>0.05</v>
+        <v>0.0</v>
       </c>
       <c r="M48" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N48"/>
-      <c r="O48" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O48"/>
       <c r="P48" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q48" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R48" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R48"/>
       <c r="S48" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3666,10 +3650,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
@@ -3678,49 +3662,55 @@
       </c>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>LYQ-SD</t>
+          <t>LYQ-ZD</t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr">
         <is>
-          <t>048</t>
+          <t>2973</t>
         </is>
       </c>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>LYQ-CSM048-R0-S</t>
+          <t>LYQ-BS-ZQ2973-W1-S</t>
         </is>
       </c>
       <c r="G49" s="1" t="inlineStr">
         <is>
-          <t>B074P3869J</t>
+          <t>B01N42B1XD</t>
         </is>
       </c>
       <c r="H49" s="4" t="n">
-        <v>38.0</v>
+        <v>27.0</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J49" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K49"/>
+        <v>0.037037037037037035</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>0.03</v>
+      </c>
       <c r="L49" s="9" t="n">
-        <v>0.0</v>
+        <v>0.03</v>
       </c>
       <c r="M49" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N49"/>
-      <c r="O49"/>
+      <c r="O49" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P49" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q49" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R49"/>
+      <c r="R49" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S49" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3736,10 +3726,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
@@ -3758,16 +3748,16 @@
       </c>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>LYQ-CSM048-ZL-S</t>
+          <t>LYQ-CSM048-K0-S</t>
         </is>
       </c>
       <c r="G50" s="1" t="inlineStr">
         <is>
-          <t>B074NZSNZ4</t>
+          <t>B074P3C5BJ</t>
         </is>
       </c>
       <c r="H50" s="4" t="n">
-        <v>116.0</v>
+        <v>160.0</v>
       </c>
       <c r="I50" s="4" t="n">
         <v>0.0</v>
@@ -3806,10 +3796,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
@@ -3818,55 +3808,49 @@
       </c>
       <c r="D51" s="1" t="inlineStr">
         <is>
-          <t>Slippers-ZD</t>
+          <t>LYQ-SD</t>
         </is>
       </c>
       <c r="E51" s="1" t="inlineStr">
         <is>
-          <t>MX006</t>
+          <t>048</t>
         </is>
       </c>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>XZ-WHMX006-R0-M</t>
+          <t>LYQ-CSM048-R0-S</t>
         </is>
       </c>
       <c r="G51" s="1" t="inlineStr">
         <is>
-          <t>B075D87GRR</t>
+          <t>B074P3869J</t>
         </is>
       </c>
       <c r="H51" s="4" t="n">
-        <v>3128.0</v>
+        <v>121.0</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>3.1969309462915604E-4</v>
-      </c>
-      <c r="K51" s="9" t="n">
-        <v>0.08</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K51"/>
       <c r="L51" s="9" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
       <c r="M51" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N51"/>
-      <c r="O51" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O51"/>
       <c r="P51" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q51" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R51" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R51"/>
       <c r="S51" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3882,10 +3866,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
@@ -3894,38 +3878,38 @@
       </c>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>Slippers-ZD</t>
+          <t>LYQ-SD</t>
         </is>
       </c>
       <c r="E52" s="1" t="inlineStr">
         <is>
-          <t>1509</t>
+          <t>048</t>
         </is>
       </c>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>XZ-WH1509-B0-3536</t>
+          <t>LYQ-CSM048-ZL-S</t>
         </is>
       </c>
       <c r="G52" s="1" t="inlineStr">
         <is>
-          <t>B075DD2ZZY</t>
+          <t>B074NZSNZ4</t>
         </is>
       </c>
       <c r="H52" s="4" t="n">
-        <v>7671.0</v>
+        <v>125.0</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="J52" s="6" t="n">
-        <v>0.001433972102724547</v>
+        <v>0.008</v>
       </c>
       <c r="K52" s="9" t="n">
-        <v>0.24727272727272726</v>
+        <v>0.05</v>
       </c>
       <c r="L52" s="9" t="n">
-        <v>2.7199999999999998</v>
+        <v>0.05</v>
       </c>
       <c r="M52" s="9" t="n">
         <v>0.0</v>
@@ -3958,10 +3942,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
@@ -3975,50 +3959,44 @@
       </c>
       <c r="E53" s="1" t="inlineStr">
         <is>
-          <t>1509</t>
+          <t>MX006</t>
         </is>
       </c>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>XZ-WH1509-W0-3536</t>
+          <t>XZ-WHMX006-R0-M</t>
         </is>
       </c>
       <c r="G53" s="1" t="inlineStr">
         <is>
-          <t>B075D4WP3Z</t>
+          <t>B075D87GRR</t>
         </is>
       </c>
       <c r="H53" s="4" t="n">
-        <v>10885.0</v>
+        <v>407.0</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="J53" s="6" t="n">
-        <v>0.0015617822691777674</v>
-      </c>
-      <c r="K53" s="9" t="n">
-        <v>0.27</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K53"/>
       <c r="L53" s="9" t="n">
-        <v>4.59</v>
+        <v>0.0</v>
       </c>
       <c r="M53" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N53"/>
-      <c r="O53" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O53"/>
       <c r="P53" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q53" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R53" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R53"/>
       <c r="S53" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4034,10 +4012,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
@@ -4056,28 +4034,28 @@
       </c>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>XZ-WH1509-Y0-3536</t>
+          <t>XZ-WH1509-B0-3536</t>
         </is>
       </c>
       <c r="G54" s="1" t="inlineStr">
         <is>
-          <t>B075D1Z8VQ</t>
+          <t>B075DD2ZZY</t>
         </is>
       </c>
       <c r="H54" s="4" t="n">
-        <v>4395.0</v>
+        <v>4916.0</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="J54" s="6" t="n">
-        <v>0.0013651877133105802</v>
+        <v>0.0030512611879576893</v>
       </c>
       <c r="K54" s="9" t="n">
-        <v>0.205</v>
+        <v>0.26333333333333336</v>
       </c>
       <c r="L54" s="9" t="n">
-        <v>1.23</v>
+        <v>3.95</v>
       </c>
       <c r="M54" s="9" t="n">
         <v>0.0</v>
@@ -4110,10 +4088,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
@@ -4127,33 +4105,33 @@
       </c>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t>150903</t>
+          <t>1509</t>
         </is>
       </c>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>XZ-WH150903-G2-3536</t>
+          <t>XZ-WH1509-W0-3536</t>
         </is>
       </c>
       <c r="G55" s="1" t="inlineStr">
         <is>
-          <t>B075D4935V</t>
+          <t>B075D4WP3Z</t>
         </is>
       </c>
       <c r="H55" s="4" t="n">
-        <v>10075.0</v>
+        <v>11462.0</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
       <c r="J55" s="6" t="n">
-        <v>0.0011910669975186104</v>
+        <v>0.00279183388588379</v>
       </c>
       <c r="K55" s="9" t="n">
-        <v>0.30833333333333335</v>
+        <v>0.2709375</v>
       </c>
       <c r="L55" s="9" t="n">
-        <v>3.7</v>
+        <v>8.67</v>
       </c>
       <c r="M55" s="9" t="n">
         <v>0.0</v>
@@ -4186,10 +4164,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
@@ -4203,33 +4181,33 @@
       </c>
       <c r="E56" s="1" t="inlineStr">
         <is>
-          <t>6606</t>
+          <t>1509</t>
         </is>
       </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>XZ-WH6606-BR-40</t>
+          <t>XZ-WH1509-Y0-3536</t>
         </is>
       </c>
       <c r="G56" s="1" t="inlineStr">
         <is>
-          <t>B07545D76P</t>
+          <t>B075D1Z8VQ</t>
         </is>
       </c>
       <c r="H56" s="4" t="n">
-        <v>266.0</v>
+        <v>3244.0</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.0037593984962406013</v>
+        <v>0.002157829839704069</v>
       </c>
       <c r="K56" s="9" t="n">
-        <v>0.2</v>
+        <v>0.21285714285714286</v>
       </c>
       <c r="L56" s="9" t="n">
-        <v>0.2</v>
+        <v>1.49</v>
       </c>
       <c r="M56" s="9" t="n">
         <v>0.0</v>
@@ -4262,10 +4240,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
@@ -4279,44 +4257,50 @@
       </c>
       <c r="E57" s="1" t="inlineStr">
         <is>
-          <t>6606</t>
+          <t>150903</t>
         </is>
       </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>XZ-WH6606-C0-35</t>
+          <t>XZ-WH150903-G2-3536</t>
         </is>
       </c>
       <c r="G57" s="1" t="inlineStr">
         <is>
-          <t>B07545TD18</t>
+          <t>B075D4935V</t>
         </is>
       </c>
       <c r="H57" s="4" t="n">
-        <v>102.0</v>
+        <v>7580.0</v>
       </c>
       <c r="I57" s="4" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K57"/>
+        <v>7.915567282321899E-4</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>0.31666666666666665</v>
+      </c>
       <c r="L57" s="9" t="n">
-        <v>0.0</v>
+        <v>1.9</v>
       </c>
       <c r="M57" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N57"/>
-      <c r="O57"/>
+      <c r="O57" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P57" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q57" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R57"/>
+      <c r="R57" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S57" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4332,10 +4316,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
@@ -4354,16 +4338,16 @@
       </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>XZ-WH6606-K0-39</t>
+          <t>XZ-WH6606-BR-40</t>
         </is>
       </c>
       <c r="G58" s="1" t="inlineStr">
         <is>
-          <t>B07545G7FW</t>
+          <t>B07545D76P</t>
         </is>
       </c>
       <c r="H58" s="4" t="n">
-        <v>44.0</v>
+        <v>448.0</v>
       </c>
       <c r="I58" s="4" t="n">
         <v>0.0</v>
@@ -4402,10 +4386,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
@@ -4424,16 +4408,16 @@
       </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>XZ-WH6606-P0-40</t>
+          <t>XZ-WH6606-C0-35</t>
         </is>
       </c>
       <c r="G59" s="1" t="inlineStr">
         <is>
-          <t>B07545L9QH</t>
+          <t>B07545TD18</t>
         </is>
       </c>
       <c r="H59" s="4" t="n">
-        <v>93.0</v>
+        <v>131.0</v>
       </c>
       <c r="I59" s="4" t="n">
         <v>0.0</v>
@@ -4472,10 +4456,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
@@ -4494,16 +4478,16 @@
       </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>XZ-WH6606-R0-35</t>
+          <t>XZ-WH6606-K0-39</t>
         </is>
       </c>
       <c r="G60" s="1" t="inlineStr">
         <is>
-          <t>B07541JWHK</t>
+          <t>B07545G7FW</t>
         </is>
       </c>
       <c r="H60" s="4" t="n">
-        <v>304.0</v>
+        <v>44.0</v>
       </c>
       <c r="I60" s="4" t="n">
         <v>0.0</v>
@@ -4542,10 +4526,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
@@ -4564,28 +4548,28 @@
       </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>XZ-WH6606-ZL-39</t>
+          <t>XZ-WH6606-P0-40</t>
         </is>
       </c>
       <c r="G61" s="1" t="inlineStr">
         <is>
-          <t>B07545HBFQ</t>
+          <t>B07545L9QH</t>
         </is>
       </c>
       <c r="H61" s="4" t="n">
-        <v>599.0</v>
+        <v>721.0</v>
       </c>
       <c r="I61" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="J61" s="6" t="n">
-        <v>0.001669449081803005</v>
+        <v>0.0013869625520110957</v>
       </c>
       <c r="K61" s="9" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="L61" s="9" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="M61" s="9" t="n">
         <v>0.0</v>
@@ -4618,10 +4602,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
@@ -4635,71 +4619,63 @@
       </c>
       <c r="E62" s="1" t="inlineStr">
         <is>
-          <t>BH004</t>
+          <t>6606</t>
         </is>
       </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>XZ-WHBH004-B0-4041</t>
+          <t>XZ-WH6606-R0-35</t>
         </is>
       </c>
       <c r="G62" s="1" t="inlineStr">
         <is>
-          <t>B075D7R3MX</t>
+          <t>B07541JWHK</t>
         </is>
       </c>
       <c r="H62" s="4" t="n">
-        <v>4569.0</v>
+        <v>69.0</v>
       </c>
       <c r="I62" s="4" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="J62" s="6" t="n">
-        <v>0.0024075289997811337</v>
-      </c>
-      <c r="K62" s="9" t="n">
-        <v>0.15000000000000002</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K62"/>
       <c r="L62" s="9" t="n">
-        <v>1.6500000000000001</v>
+        <v>0.0</v>
       </c>
       <c r="M62" s="9" t="n">
-        <v>16.99</v>
-      </c>
-      <c r="N62" s="6" t="n">
-        <v>0.09711595055915245</v>
-      </c>
-      <c r="O62" s="5" t="n">
-        <v>10.296969696969695</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N62"/>
+      <c r="O62"/>
       <c r="P62" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R62" s="6" t="n">
-        <v>0.09090909090909091</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R62"/>
       <c r="S62" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T62" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U62" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V62" s="9" t="n">
-        <v>16.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
@@ -4713,50 +4689,44 @@
       </c>
       <c r="E63" s="1" t="inlineStr">
         <is>
-          <t>BH004</t>
+          <t>6606</t>
         </is>
       </c>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>XZ-WHBH004-P0-4041</t>
+          <t>XZ-WH6606-ZL-39</t>
         </is>
       </c>
       <c r="G63" s="1" t="inlineStr">
         <is>
-          <t>B075D4VDY4</t>
+          <t>B07545HBFQ</t>
         </is>
       </c>
       <c r="H63" s="4" t="n">
-        <v>901.0</v>
+        <v>273.0</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J63" s="6" t="n">
-        <v>0.0011098779134295228</v>
-      </c>
-      <c r="K63" s="9" t="n">
-        <v>0.2</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K63"/>
       <c r="L63" s="9" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="M63" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N63"/>
-      <c r="O63" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O63"/>
       <c r="P63" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q63" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R63" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R63"/>
       <c r="S63" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4772,10 +4742,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
@@ -4784,38 +4754,38 @@
       </c>
       <c r="D64" s="1" t="inlineStr">
         <is>
-          <t>MEN-SHIRT</t>
+          <t>Slippers-ZD</t>
         </is>
       </c>
       <c r="E64" s="1" t="inlineStr">
         <is>
-          <t>086</t>
+          <t>BH004</t>
         </is>
       </c>
       <c r="F64" s="1" t="inlineStr">
         <is>
-          <t>CS-LY086-B0-L</t>
+          <t>XZ-WHBH004-B0-4041</t>
         </is>
       </c>
       <c r="G64" s="1" t="inlineStr">
         <is>
-          <t>B06XPSH74T</t>
+          <t>B075D7R3MX</t>
         </is>
       </c>
       <c r="H64" s="4" t="n">
-        <v>465.0</v>
+        <v>10761.0</v>
       </c>
       <c r="I64" s="4" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="J64" s="6" t="n">
-        <v>0.010752688172043012</v>
+        <v>0.0013939224979091162</v>
       </c>
       <c r="K64" s="9" t="n">
-        <v>0.118</v>
+        <v>0.10866666666666666</v>
       </c>
       <c r="L64" s="9" t="n">
-        <v>0.59</v>
+        <v>1.63</v>
       </c>
       <c r="M64" s="9" t="n">
         <v>0.0</v>
@@ -4848,10 +4818,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
@@ -4860,38 +4830,38 @@
       </c>
       <c r="D65" s="1" t="inlineStr">
         <is>
-          <t>MEN-SHIRT</t>
+          <t>Slippers-ZD</t>
         </is>
       </c>
       <c r="E65" s="1" t="inlineStr">
         <is>
-          <t>086</t>
+          <t>BH004</t>
         </is>
       </c>
       <c r="F65" s="1" t="inlineStr">
         <is>
-          <t>CS-LY086-B0-XXL</t>
+          <t>XZ-WHBH004-P0-4041</t>
         </is>
       </c>
       <c r="G65" s="1" t="inlineStr">
         <is>
-          <t>B06XPVYCWG</t>
+          <t>B075D4VDY4</t>
         </is>
       </c>
       <c r="H65" s="4" t="n">
-        <v>473.0</v>
+        <v>1008.0</v>
       </c>
       <c r="I65" s="4" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="J65" s="6" t="n">
-        <v>0.008456659619450317</v>
+        <v>9.92063492063492E-4</v>
       </c>
       <c r="K65" s="9" t="n">
-        <v>0.12000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="L65" s="9" t="n">
-        <v>0.48000000000000004</v>
+        <v>0.18</v>
       </c>
       <c r="M65" s="9" t="n">
         <v>0.0</v>
@@ -4924,10 +4894,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
@@ -4946,28 +4916,28 @@
       </c>
       <c r="F66" s="1" t="inlineStr">
         <is>
-          <t>CS-LY086-LB-L</t>
+          <t>CS-LY086-B0-L</t>
         </is>
       </c>
       <c r="G66" s="1" t="inlineStr">
         <is>
-          <t>B06XPQSMQY</t>
+          <t>B06XPSH74T</t>
         </is>
       </c>
       <c r="H66" s="4" t="n">
-        <v>634.0</v>
+        <v>2428.0</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="J66" s="6" t="n">
-        <v>0.00946372239747634</v>
+        <v>0.002883031301482702</v>
       </c>
       <c r="K66" s="9" t="n">
-        <v>0.16333333333333333</v>
+        <v>0.08142857142857142</v>
       </c>
       <c r="L66" s="9" t="n">
-        <v>0.98</v>
+        <v>0.57</v>
       </c>
       <c r="M66" s="9" t="n">
         <v>0.0</v>
@@ -5000,10 +4970,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
@@ -5022,39 +4992,45 @@
       </c>
       <c r="F67" s="1" t="inlineStr">
         <is>
-          <t>CS-LY086-N0-M</t>
+          <t>CS-LY086-B0-XXL</t>
         </is>
       </c>
       <c r="G67" s="1" t="inlineStr">
         <is>
-          <t>B06XPWS8YL</t>
+          <t>B06XPVYCWG</t>
         </is>
       </c>
       <c r="H67" s="4" t="n">
-        <v>209.0</v>
+        <v>770.0</v>
       </c>
       <c r="I67" s="4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J67" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K67"/>
+        <v>0.005194805194805194</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>0.0725</v>
+      </c>
       <c r="L67" s="9" t="n">
-        <v>0.0</v>
+        <v>0.29</v>
       </c>
       <c r="M67" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N67"/>
-      <c r="O67"/>
+      <c r="O67" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P67" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q67" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R67"/>
+      <c r="R67" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S67" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -5070,10 +5046,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
@@ -5092,28 +5068,28 @@
       </c>
       <c r="F68" s="1" t="inlineStr">
         <is>
-          <t>CS-LY086-N0-S</t>
+          <t>CS-LY086-LB-L</t>
         </is>
       </c>
       <c r="G68" s="1" t="inlineStr">
         <is>
-          <t>B06XPCX59X</t>
+          <t>B06XPQSMQY</t>
         </is>
       </c>
       <c r="H68" s="4" t="n">
-        <v>1566.0</v>
+        <v>390.0</v>
       </c>
       <c r="I68" s="4" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="J68" s="6" t="n">
-        <v>0.003831417624521072</v>
+        <v>0.0025641025641025637</v>
       </c>
       <c r="K68" s="9" t="n">
-        <v>0.135</v>
+        <v>0.18</v>
       </c>
       <c r="L68" s="9" t="n">
-        <v>0.81</v>
+        <v>0.18</v>
       </c>
       <c r="M68" s="9" t="n">
         <v>0.0</v>
@@ -5146,10 +5122,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
@@ -5158,38 +5134,38 @@
       </c>
       <c r="D69" s="1" t="inlineStr">
         <is>
-          <t>1010 Manual</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E69" s="1" t="inlineStr">
         <is>
-          <t>1010 K0</t>
+          <t>086</t>
         </is>
       </c>
       <c r="F69" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-K1010-K0-XL</t>
+          <t>CS-LY086-N0-M</t>
         </is>
       </c>
       <c r="G69" s="1" t="inlineStr">
         <is>
-          <t>B01KO0SDBI</t>
+          <t>B06XPWS8YL</t>
         </is>
       </c>
       <c r="H69" s="4" t="n">
-        <v>2733.0</v>
+        <v>343.0</v>
       </c>
       <c r="I69" s="4" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="J69" s="6" t="n">
-        <v>0.005488474204171241</v>
+        <v>0.0029154518950437317</v>
       </c>
       <c r="K69" s="9" t="n">
-        <v>0.1406666666666667</v>
+        <v>0.19</v>
       </c>
       <c r="L69" s="9" t="n">
-        <v>2.1100000000000003</v>
+        <v>0.19</v>
       </c>
       <c r="M69" s="9" t="n">
         <v>0.0</v>
@@ -5222,10 +5198,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
@@ -5234,38 +5210,38 @@
       </c>
       <c r="D70" s="1" t="inlineStr">
         <is>
-          <t>1010 Manual</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E70" s="1" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>086</t>
         </is>
       </c>
       <c r="F70" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-K1010-B0-M</t>
+          <t>CS-LY086-N0-S</t>
         </is>
       </c>
       <c r="G70" s="1" t="inlineStr">
         <is>
-          <t>B01MDUDE2E</t>
+          <t>B06XPCX59X</t>
         </is>
       </c>
       <c r="H70" s="4" t="n">
-        <v>32269.0</v>
+        <v>814.0</v>
       </c>
       <c r="I70" s="4" t="n">
-        <v>115.0</v>
+        <v>3.0</v>
       </c>
       <c r="J70" s="6" t="n">
-        <v>0.003563791874554526</v>
+        <v>0.0036855036855036856</v>
       </c>
       <c r="K70" s="9" t="n">
-        <v>0.14939130434782608</v>
+        <v>0.09666666666666666</v>
       </c>
       <c r="L70" s="9" t="n">
-        <v>17.18</v>
+        <v>0.29</v>
       </c>
       <c r="M70" s="9" t="n">
         <v>0.0</v>
@@ -5298,10 +5274,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
@@ -5315,71 +5291,69 @@
       </c>
       <c r="E71" s="1" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>1010 K0</t>
         </is>
       </c>
       <c r="F71" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-K1010-P0-S</t>
+          <t>LYQ-BS-K1010-K0-XL</t>
         </is>
       </c>
       <c r="G71" s="1" t="inlineStr">
         <is>
-          <t>B017X47UK8</t>
+          <t>B01KO0SDBI</t>
         </is>
       </c>
       <c r="H71" s="4" t="n">
-        <v>154318.0</v>
+        <v>5174.0</v>
       </c>
       <c r="I71" s="4" t="n">
-        <v>109.0</v>
+        <v>17.0</v>
       </c>
       <c r="J71" s="6" t="n">
-        <v>7.063336746199406E-4</v>
+        <v>0.003285659064553537</v>
       </c>
       <c r="K71" s="9" t="n">
-        <v>0.1469724770642202</v>
+        <v>0.09705882352941175</v>
       </c>
       <c r="L71" s="9" t="n">
-        <v>16.020000000000003</v>
+        <v>1.65</v>
       </c>
       <c r="M71" s="9" t="n">
-        <v>31.96</v>
-      </c>
-      <c r="N71" s="6" t="n">
-        <v>0.5012515644555695</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N71"/>
       <c r="O71" s="5" t="n">
-        <v>1.9950062421972532</v>
+        <v>0.0</v>
       </c>
       <c r="P71" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q71" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="R71" s="6" t="n">
-        <v>0.01834862385321101</v>
+        <v>0.0</v>
       </c>
       <c r="S71" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T71" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U71" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V71" s="9" t="n">
-        <v>31.96</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
@@ -5388,74 +5362,76 @@
       </c>
       <c r="D72" s="1" t="inlineStr">
         <is>
-          <t>Slippers-ZD</t>
+          <t>1010 Manual</t>
         </is>
       </c>
       <c r="E72" s="1" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="F72" s="1" t="inlineStr">
         <is>
-          <t>XZ-BS-PW-2001-BG-36</t>
+          <t>LYQ-BS-K1010-B0-M</t>
         </is>
       </c>
       <c r="G72" s="1" t="inlineStr">
         <is>
-          <t>B01MQVW9DX</t>
+          <t>B01MDUDE2E</t>
         </is>
       </c>
       <c r="H72" s="4" t="n">
-        <v>3427.0</v>
+        <v>63003.0</v>
       </c>
       <c r="I72" s="4" t="n">
-        <v>13.0</v>
+        <v>162.0</v>
       </c>
       <c r="J72" s="6" t="n">
-        <v>0.003793405310767435</v>
+        <v>0.002571306128279606</v>
       </c>
       <c r="K72" s="9" t="n">
-        <v>0.10846153846153847</v>
+        <v>0.15845679012345681</v>
       </c>
       <c r="L72" s="9" t="n">
-        <v>1.4100000000000001</v>
+        <v>25.670000000000005</v>
       </c>
       <c r="M72" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N72"/>
+        <v>31.96</v>
+      </c>
+      <c r="N72" s="6" t="n">
+        <v>0.8031914893617023</v>
+      </c>
       <c r="O72" s="5" t="n">
-        <v>0.0</v>
+        <v>1.2450331125827812</v>
       </c>
       <c r="P72" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q72" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R72" s="6" t="n">
-        <v>0.0</v>
+        <v>0.012345679012345678</v>
       </c>
       <c r="S72" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T72" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U72" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V72" s="9" t="n">
-        <v>0.0</v>
+        <v>31.96</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>43282.0</v>
+        <v>43287.0</v>
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
@@ -5464,38 +5440,38 @@
       </c>
       <c r="D73" s="1" t="inlineStr">
         <is>
-          <t>XZ-ZD</t>
+          <t>1010 Manual</t>
         </is>
       </c>
       <c r="E73" s="1" t="inlineStr">
         <is>
-          <t>251864</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="F73" s="1" t="inlineStr">
         <is>
-          <t>XZ-BS-WHXY251864K03839</t>
+          <t>LYQ-BS-K1010-P0-S</t>
         </is>
       </c>
       <c r="G73" s="1" t="inlineStr">
         <is>
-          <t>B01MYR8K9H</t>
+          <t>B017X47UK8</t>
         </is>
       </c>
       <c r="H73" s="4" t="n">
-        <v>156.0</v>
+        <v>7556.0</v>
       </c>
       <c r="I73" s="4" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="J73" s="6" t="n">
-        <v>0.00641025641025641</v>
+        <v>0.0019851773425092643</v>
       </c>
       <c r="K73" s="9" t="n">
-        <v>0.2</v>
+        <v>0.2006666666666667</v>
       </c>
       <c r="L73" s="9" t="n">
-        <v>0.2</v>
+        <v>3.0100000000000002</v>
       </c>
       <c r="M73" s="9" t="n">
         <v>0.0</v>
@@ -5528,10 +5504,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C74" s="1" t="inlineStr">
         <is>
@@ -5540,49 +5516,55 @@
       </c>
       <c r="D74" s="1" t="inlineStr">
         <is>
-          <t>XZ-ZD</t>
+          <t>Slippers-ZD</t>
         </is>
       </c>
       <c r="E74" s="1" t="inlineStr">
         <is>
-          <t>251864</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="F74" s="1" t="inlineStr">
         <is>
-          <t>XZ-BS-WHXY251864W03839</t>
+          <t>XZ-BS-PW-2001-BG-36</t>
         </is>
       </c>
       <c r="G74" s="1" t="inlineStr">
         <is>
-          <t>B01NCBPR28</t>
+          <t>B01MQVW9DX</t>
         </is>
       </c>
       <c r="H74" s="4" t="n">
-        <v>279.0</v>
+        <v>4182.0</v>
       </c>
       <c r="I74" s="4" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="J74" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K74"/>
+        <v>0.0031085604973696795</v>
+      </c>
+      <c r="K74" s="9" t="n">
+        <v>0.1253846153846154</v>
+      </c>
       <c r="L74" s="9" t="n">
-        <v>0.0</v>
+        <v>1.6300000000000001</v>
       </c>
       <c r="M74" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N74"/>
-      <c r="O74"/>
+      <c r="O74" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P74" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q74" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R74"/>
+      <c r="R74" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S74" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -5598,10 +5580,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
@@ -5610,26 +5592,26 @@
       </c>
       <c r="D75" s="1" t="inlineStr">
         <is>
-          <t>MEN-SHIRT</t>
+          <t>XZ-ZD</t>
         </is>
       </c>
       <c r="E75" s="1" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>251864</t>
         </is>
       </c>
       <c r="F75" s="1" t="inlineStr">
         <is>
-          <t>CS-LY166-B28-3-L</t>
+          <t>XZ-BS-WHXY251864K03839</t>
         </is>
       </c>
       <c r="G75" s="1" t="inlineStr">
         <is>
-          <t>B072LTDBVG</t>
+          <t>B01MYR8K9H</t>
         </is>
       </c>
       <c r="H75" s="4" t="n">
-        <v>222.0</v>
+        <v>226.0</v>
       </c>
       <c r="I75" s="4" t="n">
         <v>0.0</v>
@@ -5668,10 +5650,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
@@ -5680,26 +5662,26 @@
       </c>
       <c r="D76" s="1" t="inlineStr">
         <is>
-          <t>MEN-SHIRT</t>
+          <t>XZ-ZD</t>
         </is>
       </c>
       <c r="E76" s="1" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>251864</t>
         </is>
       </c>
       <c r="F76" s="1" t="inlineStr">
         <is>
-          <t>CS-LY166-B28-4-L</t>
+          <t>XZ-BS-WHXY251864W03839</t>
         </is>
       </c>
       <c r="G76" s="1" t="inlineStr">
         <is>
-          <t>B072PQ55W6</t>
+          <t>B01NCBPR28</t>
         </is>
       </c>
       <c r="H76" s="4" t="n">
-        <v>183.0</v>
+        <v>122.0</v>
       </c>
       <c r="I76" s="4" t="n">
         <v>0.0</v>
@@ -5738,10 +5720,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
@@ -5760,16 +5742,16 @@
       </c>
       <c r="F77" s="1" t="inlineStr">
         <is>
-          <t>CS-LY166-B28-5-L</t>
+          <t>CS-LY166-B28-3-L</t>
         </is>
       </c>
       <c r="G77" s="1" t="inlineStr">
         <is>
-          <t>B071P6G6FV</t>
+          <t>B072LTDBVG</t>
         </is>
       </c>
       <c r="H77" s="4" t="n">
-        <v>316.0</v>
+        <v>102.0</v>
       </c>
       <c r="I77" s="4" t="n">
         <v>0.0</v>
@@ -5808,10 +5790,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
@@ -5830,25 +5812,25 @@
       </c>
       <c r="F78" s="1" t="inlineStr">
         <is>
-          <t>CS-LY166-K33-4-S</t>
+          <t>CS-LY166-B28-4-L</t>
         </is>
       </c>
       <c r="G78" s="1" t="inlineStr">
         <is>
-          <t>B07173Q2FN</t>
+          <t>B072PQ55W6</t>
         </is>
       </c>
       <c r="H78" s="4" t="n">
-        <v>186.0</v>
+        <v>428.0</v>
       </c>
       <c r="I78" s="4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J78" s="6" t="n">
-        <v>0.005376344086021506</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="K78" s="9" t="n">
-        <v>0.11</v>
+        <v>0.055</v>
       </c>
       <c r="L78" s="9" t="n">
         <v>0.11</v>
@@ -5884,10 +5866,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>43282.0</v>
+        <v>43285.0</v>
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
@@ -5906,45 +5888,39 @@
       </c>
       <c r="F79" s="1" t="inlineStr">
         <is>
-          <t>CS-LY166-K73-2-L</t>
+          <t>CS-LY166-B28-5-L</t>
         </is>
       </c>
       <c r="G79" s="1" t="inlineStr">
         <is>
-          <t>B0725VLGKV</t>
+          <t>B071P6G6FV</t>
         </is>
       </c>
       <c r="H79" s="4" t="n">
-        <v>292.0</v>
+        <v>190.0</v>
       </c>
       <c r="I79" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J79" s="6" t="n">
-        <v>0.00684931506849315</v>
-      </c>
-      <c r="K79" s="9" t="n">
-        <v>0.15</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K79"/>
       <c r="L79" s="9" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="M79" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N79"/>
-      <c r="O79" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O79"/>
       <c r="P79" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q79" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R79" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R79"/>
       <c r="S79" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -5960,10 +5936,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C80" s="1" t="inlineStr">
         <is>
@@ -5972,76 +5948,74 @@
       </c>
       <c r="D80" s="1" t="inlineStr">
         <is>
-          <t>1010 Manual</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E80" s="1" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>166</t>
         </is>
       </c>
       <c r="F80" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-K1010-N0-2X</t>
+          <t>CS-LY166-K33-4-S</t>
         </is>
       </c>
       <c r="G80" s="1" t="inlineStr">
         <is>
-          <t>B01M6UNN0N</t>
+          <t>B07173Q2FN</t>
         </is>
       </c>
       <c r="H80" s="4" t="n">
-        <v>14774.0</v>
+        <v>134.0</v>
       </c>
       <c r="I80" s="4" t="n">
-        <v>43.0</v>
+        <v>2.0</v>
       </c>
       <c r="J80" s="6" t="n">
-        <v>0.002910518478408014</v>
+        <v>0.014925373134328356</v>
       </c>
       <c r="K80" s="9" t="n">
-        <v>0.1627906976744186</v>
+        <v>0.07</v>
       </c>
       <c r="L80" s="9" t="n">
-        <v>6.999999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="M80" s="9" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="N80" s="6" t="n">
-        <v>0.7014028056112224</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N80"/>
       <c r="O80" s="5" t="n">
-        <v>1.425714285714286</v>
+        <v>0.0</v>
       </c>
       <c r="P80" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q80" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R80" s="6" t="n">
-        <v>0.023255813953488372</v>
+        <v>0.0</v>
       </c>
       <c r="S80" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T80" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U80" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V80" s="9" t="n">
-        <v>9.98</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
@@ -6050,38 +6024,38 @@
       </c>
       <c r="D81" s="1" t="inlineStr">
         <is>
-          <t>1010 Manual</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E81" s="1" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>166</t>
         </is>
       </c>
       <c r="F81" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-K1010-N0-S</t>
+          <t>CS-LY166-K73-2-L</t>
         </is>
       </c>
       <c r="G81" s="1" t="inlineStr">
         <is>
-          <t>B01M59530X</t>
+          <t>B0725VLGKV</t>
         </is>
       </c>
       <c r="H81" s="4" t="n">
-        <v>60244.0</v>
+        <v>649.0</v>
       </c>
       <c r="I81" s="4" t="n">
-        <v>109.0</v>
+        <v>3.0</v>
       </c>
       <c r="J81" s="6" t="n">
-        <v>0.001809308810835934</v>
+        <v>0.004622496147919877</v>
       </c>
       <c r="K81" s="9" t="n">
-        <v>0.16045871559633026</v>
+        <v>0.06333333333333334</v>
       </c>
       <c r="L81" s="9" t="n">
-        <v>17.49</v>
+        <v>0.19</v>
       </c>
       <c r="M81" s="9" t="n">
         <v>0.0</v>
@@ -6114,10 +6088,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>43282.0</v>
+        <v>43287.0</v>
       </c>
       <c r="C82" s="1" t="inlineStr">
         <is>
@@ -6126,38 +6100,38 @@
       </c>
       <c r="D82" s="1" t="inlineStr">
         <is>
-          <t>LYQ-SD</t>
+          <t>1010 Manual</t>
         </is>
       </c>
       <c r="E82" s="1" t="inlineStr">
         <is>
-          <t>CS04</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="F82" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-CS04-GR-XL</t>
+          <t>LYQ-BS-K1010-N0-2X</t>
         </is>
       </c>
       <c r="G82" s="1" t="inlineStr">
         <is>
-          <t>B0761R7P9F</t>
+          <t>B01M6UNN0N</t>
         </is>
       </c>
       <c r="H82" s="4" t="n">
-        <v>376.0</v>
+        <v>7083.0</v>
       </c>
       <c r="I82" s="4" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="J82" s="6" t="n">
-        <v>0.0026595744680851063</v>
+        <v>0.002258929831992094</v>
       </c>
       <c r="K82" s="9" t="n">
-        <v>0.11</v>
+        <v>0.19499999999999998</v>
       </c>
       <c r="L82" s="9" t="n">
-        <v>0.11</v>
+        <v>3.1199999999999997</v>
       </c>
       <c r="M82" s="9" t="n">
         <v>0.0</v>
@@ -6190,10 +6164,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>43282.0</v>
+        <v>43287.0</v>
       </c>
       <c r="C83" s="1" t="inlineStr">
         <is>
@@ -6202,76 +6176,74 @@
       </c>
       <c r="D83" s="1" t="inlineStr">
         <is>
-          <t>YZ-ZD</t>
+          <t>1010 Manual</t>
         </is>
       </c>
       <c r="E83" s="1" t="inlineStr">
         <is>
-          <t>1731</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="F83" s="1" t="inlineStr">
         <is>
-          <t>BS-WH1731-K0-L</t>
+          <t>LYQ-BS-K1010-N0-S</t>
         </is>
       </c>
       <c r="G83" s="1" t="inlineStr">
         <is>
-          <t>B071RBF645</t>
+          <t>B01M59530X</t>
         </is>
       </c>
       <c r="H83" s="4" t="n">
-        <v>50249.0</v>
+        <v>82262.0</v>
       </c>
       <c r="I83" s="4" t="n">
-        <v>182.0</v>
+        <v>108.0</v>
       </c>
       <c r="J83" s="6" t="n">
-        <v>0.003621962626121913</v>
+        <v>0.0013128783642508083</v>
       </c>
       <c r="K83" s="9" t="n">
-        <v>0.28120879120879116</v>
+        <v>0.14398148148148146</v>
       </c>
       <c r="L83" s="9" t="n">
-        <v>51.17999999999999</v>
+        <v>15.549999999999997</v>
       </c>
       <c r="M83" s="9" t="n">
-        <v>78.96</v>
-      </c>
-      <c r="N83" s="6" t="n">
-        <v>0.648176291793313</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N83"/>
       <c r="O83" s="5" t="n">
-        <v>1.5427901524032825</v>
+        <v>0.0</v>
       </c>
       <c r="P83" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q83" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="R83" s="6" t="n">
-        <v>0.02197802197802198</v>
+        <v>0.0</v>
       </c>
       <c r="S83" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T83" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="U83" s="9" t="n">
-        <v>19.99</v>
+        <v>0.0</v>
       </c>
       <c r="V83" s="9" t="n">
-        <v>58.97</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C84" s="1" t="inlineStr">
         <is>
@@ -6280,76 +6252,74 @@
       </c>
       <c r="D84" s="1" t="inlineStr">
         <is>
-          <t>YZ-ZD</t>
+          <t>LYQ-SD</t>
         </is>
       </c>
       <c r="E84" s="1" t="inlineStr">
         <is>
-          <t>1731</t>
+          <t>CS04</t>
         </is>
       </c>
       <c r="F84" s="1" t="inlineStr">
         <is>
-          <t>BS-WH1731-R0-L</t>
+          <t>LYQ-BS-CS04-GR-XL</t>
         </is>
       </c>
       <c r="G84" s="1" t="inlineStr">
         <is>
-          <t>B06XZ1KL11</t>
+          <t>B0761R7P9F</t>
         </is>
       </c>
       <c r="H84" s="4" t="n">
-        <v>15815.0</v>
+        <v>301.0</v>
       </c>
       <c r="I84" s="4" t="n">
-        <v>59.0</v>
+        <v>1.0</v>
       </c>
       <c r="J84" s="6" t="n">
-        <v>0.0037306354726525446</v>
+        <v>0.0033222591362126247</v>
       </c>
       <c r="K84" s="9" t="n">
-        <v>0.2745762711864407</v>
+        <v>0.11</v>
       </c>
       <c r="L84" s="9" t="n">
-        <v>16.2</v>
+        <v>0.11</v>
       </c>
       <c r="M84" s="9" t="n">
-        <v>58.97</v>
-      </c>
-      <c r="N84" s="6" t="n">
-        <v>0.27471595726640663</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N84"/>
       <c r="O84" s="5" t="n">
-        <v>3.6401234567901235</v>
+        <v>0.0</v>
       </c>
       <c r="P84" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q84" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="R84" s="6" t="n">
-        <v>0.05084745762711865</v>
+        <v>0.0</v>
       </c>
       <c r="S84" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T84" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="U84" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V84" s="9" t="n">
-        <v>58.97</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C85" s="1" t="inlineStr">
         <is>
@@ -6358,38 +6328,38 @@
       </c>
       <c r="D85" s="1" t="inlineStr">
         <is>
-          <t>XZ-ZD</t>
+          <t>YZ-ZD</t>
         </is>
       </c>
       <c r="E85" s="1" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>1731</t>
         </is>
       </c>
       <c r="F85" s="1" t="inlineStr">
         <is>
-          <t>XZ-BS-ZQCB3056-B0-24</t>
+          <t>BS-WH1731-K0-L</t>
         </is>
       </c>
       <c r="G85" s="1" t="inlineStr">
         <is>
-          <t>B01N77WSH0</t>
+          <t>B071RBF645</t>
         </is>
       </c>
       <c r="H85" s="4" t="n">
-        <v>1538.0</v>
+        <v>4707.0</v>
       </c>
       <c r="I85" s="4" t="n">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="J85" s="6" t="n">
-        <v>0.003250975292587776</v>
+        <v>0.0053112385808370514</v>
       </c>
       <c r="K85" s="9" t="n">
-        <v>0.198</v>
+        <v>0.3056</v>
       </c>
       <c r="L85" s="9" t="n">
-        <v>0.99</v>
+        <v>7.64</v>
       </c>
       <c r="M85" s="9" t="n">
         <v>0.0</v>
@@ -6422,10 +6392,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>43282.0</v>
+        <v>43288.0</v>
       </c>
       <c r="C86" s="1" t="inlineStr">
         <is>
@@ -6434,74 +6404,76 @@
       </c>
       <c r="D86" s="1" t="inlineStr">
         <is>
-          <t>XZ-ZD</t>
+          <t>YZ-ZD</t>
         </is>
       </c>
       <c r="E86" s="1" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>1731</t>
         </is>
       </c>
       <c r="F86" s="1" t="inlineStr">
         <is>
-          <t>XZ-BS-ZQCB3056-kQ-24</t>
+          <t>BS-WH1731-R0-L</t>
         </is>
       </c>
       <c r="G86" s="1" t="inlineStr">
         <is>
-          <t>B01N0GIJRR</t>
+          <t>B06XZ1KL11</t>
         </is>
       </c>
       <c r="H86" s="4" t="n">
-        <v>1565.0</v>
+        <v>48383.0</v>
       </c>
       <c r="I86" s="4" t="n">
-        <v>4.0</v>
+        <v>116.0</v>
       </c>
       <c r="J86" s="6" t="n">
-        <v>0.0025559105431309905</v>
+        <v>0.0023975363247421616</v>
       </c>
       <c r="K86" s="9" t="n">
-        <v>0.255</v>
+        <v>0.2800862068965517</v>
       </c>
       <c r="L86" s="9" t="n">
-        <v>1.02</v>
+        <v>32.49</v>
       </c>
       <c r="M86" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N86"/>
+        <v>18.25</v>
+      </c>
+      <c r="N86" s="6" t="n">
+        <v>1.78027397260274</v>
+      </c>
       <c r="O86" s="5" t="n">
-        <v>0.0</v>
+        <v>0.5617112957833179</v>
       </c>
       <c r="P86" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q86" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R86" s="6" t="n">
-        <v>0.0</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="S86" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T86" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U86" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V86" s="9" t="n">
-        <v>0.0</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C87" s="1" t="inlineStr">
         <is>
@@ -6515,33 +6487,33 @@
       </c>
       <c r="E87" s="1" t="inlineStr">
         <is>
-          <t>2115</t>
+          <t>3056</t>
         </is>
       </c>
       <c r="F87" s="1" t="inlineStr">
         <is>
-          <t>XZ-BS-2115Gr35</t>
+          <t>XZ-BS-ZQCB3056-B0-24</t>
         </is>
       </c>
       <c r="G87" s="1" t="inlineStr">
         <is>
-          <t>B01M1BALWK</t>
+          <t>B01N77WSH0</t>
         </is>
       </c>
       <c r="H87" s="4" t="n">
-        <v>8959.0</v>
+        <v>1666.0</v>
       </c>
       <c r="I87" s="4" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="J87" s="6" t="n">
-        <v>0.0011161960040183055</v>
+        <v>0.004201680672268907</v>
       </c>
       <c r="K87" s="9" t="n">
-        <v>0.254</v>
+        <v>0.2457142857142857</v>
       </c>
       <c r="L87" s="9" t="n">
-        <v>2.54</v>
+        <v>1.7199999999999998</v>
       </c>
       <c r="M87" s="9" t="n">
         <v>0.0</v>
@@ -6574,10 +6546,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43278.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>43278.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C88" s="1" t="inlineStr">
         <is>
@@ -6586,47 +6558,55 @@
       </c>
       <c r="D88" s="1" t="inlineStr">
         <is>
-          <t>YZ-ZD</t>
+          <t>XZ-ZD</t>
         </is>
       </c>
       <c r="E88" s="1" t="inlineStr">
         <is>
-          <t>17008</t>
+          <t>3056</t>
         </is>
       </c>
       <c r="F88" s="1" t="inlineStr">
         <is>
-          <t>BS-WH17008-G0-M</t>
+          <t>XZ-BS-ZQCB3056-kQ-24</t>
         </is>
       </c>
       <c r="G88" s="1" t="inlineStr">
         <is>
-          <t>B071RCX72R</t>
+          <t>B01N0GIJRR</t>
         </is>
       </c>
       <c r="H88" s="4" t="n">
-        <v>0.0</v>
+        <v>1161.0</v>
       </c>
       <c r="I88" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J88"/>
-      <c r="K88"/>
+        <v>2.0</v>
+      </c>
+      <c r="J88" s="6" t="n">
+        <v>0.0017226528854435833</v>
+      </c>
+      <c r="K88" s="9" t="n">
+        <v>0.315</v>
+      </c>
       <c r="L88" s="9" t="n">
-        <v>0.0</v>
+        <v>0.63</v>
       </c>
       <c r="M88" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N88"/>
-      <c r="O88"/>
+      <c r="O88" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P88" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q88" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R88"/>
+      <c r="R88" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S88" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -6642,10 +6622,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>43280.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C89" s="1" t="inlineStr">
         <is>
@@ -6654,49 +6634,55 @@
       </c>
       <c r="D89" s="1" t="inlineStr">
         <is>
-          <t>YZ-ZD</t>
+          <t>XZ-ZD</t>
         </is>
       </c>
       <c r="E89" s="1" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>2115</t>
         </is>
       </c>
       <c r="F89" s="1" t="inlineStr">
         <is>
-          <t>YZ-BEWH173-WI-M</t>
+          <t>XZ-BS-2115Gr35</t>
         </is>
       </c>
       <c r="G89" s="1" t="inlineStr">
         <is>
-          <t>B0791F2B3D</t>
+          <t>B01M1BALWK</t>
         </is>
       </c>
       <c r="H89" s="4" t="n">
-        <v>21.0</v>
+        <v>5250.0</v>
       </c>
       <c r="I89" s="4" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="J89" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K89"/>
+        <v>0.0019047619047619048</v>
+      </c>
+      <c r="K89" s="9" t="n">
+        <v>0.236</v>
+      </c>
       <c r="L89" s="9" t="n">
-        <v>0.0</v>
+        <v>2.36</v>
       </c>
       <c r="M89" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N89"/>
-      <c r="O89"/>
+      <c r="O89" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P89" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q89" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R89"/>
+      <c r="R89" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S89" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -6712,10 +6698,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C90" s="1" t="inlineStr">
         <is>
@@ -6724,55 +6710,49 @@
       </c>
       <c r="D90" s="1" t="inlineStr">
         <is>
-          <t>ZB-auto-5.24</t>
+          <t>YZ-ZD</t>
         </is>
       </c>
       <c r="E90" s="1" t="inlineStr">
         <is>
-          <t>WQS-BS-BN1504</t>
+          <t>173</t>
         </is>
       </c>
       <c r="F90" s="1" t="inlineStr">
         <is>
-          <t>WQS-BS-BN1504-GR-M</t>
+          <t>YZ-BEWH173-WI-M</t>
         </is>
       </c>
       <c r="G90" s="1" t="inlineStr">
         <is>
-          <t>B071KZMSQN</t>
+          <t>B0791F2B3D</t>
         </is>
       </c>
       <c r="H90" s="4" t="n">
-        <v>274.0</v>
+        <v>26.0</v>
       </c>
       <c r="I90" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J90" s="6" t="n">
-        <v>0.0036496350364963502</v>
-      </c>
-      <c r="K90" s="9" t="n">
-        <v>0.21</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K90"/>
       <c r="L90" s="9" t="n">
-        <v>0.21</v>
+        <v>0.0</v>
       </c>
       <c r="M90" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N90"/>
-      <c r="O90" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O90"/>
       <c r="P90" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q90" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R90" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R90"/>
       <c r="S90" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -6788,10 +6768,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C91" s="1" t="inlineStr">
         <is>
@@ -6810,45 +6790,39 @@
       </c>
       <c r="F91" s="1" t="inlineStr">
         <is>
-          <t>WQS-BS-BN1504-GR-S</t>
+          <t>WQS-BS-BN1504-GR-M</t>
         </is>
       </c>
       <c r="G91" s="1" t="inlineStr">
         <is>
-          <t>B071KZMVTG</t>
+          <t>B071KZMSQN</t>
         </is>
       </c>
       <c r="H91" s="4" t="n">
-        <v>3868.0</v>
+        <v>35.0</v>
       </c>
       <c r="I91" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J91" s="6" t="n">
-        <v>5.17063081695967E-4</v>
-      </c>
-      <c r="K91" s="9" t="n">
-        <v>0.11</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K91"/>
       <c r="L91" s="9" t="n">
-        <v>0.22</v>
+        <v>0.0</v>
       </c>
       <c r="M91" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N91"/>
-      <c r="O91" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O91"/>
       <c r="P91" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q91" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R91" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R91"/>
       <c r="S91" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -6864,10 +6838,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C92" s="1" t="inlineStr">
         <is>
@@ -6886,28 +6860,28 @@
       </c>
       <c r="F92" s="1" t="inlineStr">
         <is>
-          <t>WQS-BS-BN1504-KO-M</t>
+          <t>WQS-BS-BN1504-GR-S</t>
         </is>
       </c>
       <c r="G92" s="1" t="inlineStr">
         <is>
-          <t>B071DT5KD5</t>
+          <t>B071KZMVTG</t>
         </is>
       </c>
       <c r="H92" s="4" t="n">
-        <v>356.0</v>
+        <v>549.0</v>
       </c>
       <c r="I92" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="J92" s="6" t="n">
-        <v>0.002808988764044944</v>
+        <v>0.0018214936247723133</v>
       </c>
       <c r="K92" s="9" t="n">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="L92" s="9" t="n">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="M92" s="9" t="n">
         <v>0.0</v>
@@ -6940,10 +6914,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43277.0</v>
+        <v>43285.0</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>43282.0</v>
+        <v>43285.0</v>
       </c>
       <c r="C93" s="1" t="inlineStr">
         <is>
@@ -6962,16 +6936,16 @@
       </c>
       <c r="F93" s="1" t="inlineStr">
         <is>
-          <t>WQS-BS-BN1504-KO-S</t>
+          <t>WQS-BS-BN1504-KO-L</t>
         </is>
       </c>
       <c r="G93" s="1" t="inlineStr">
         <is>
-          <t>B071KZMY6D</t>
+          <t>B071VC4T6W</t>
         </is>
       </c>
       <c r="H93" s="4" t="n">
-        <v>246.0</v>
+        <v>391.0</v>
       </c>
       <c r="I93" s="4" t="n">
         <v>0.0</v>
@@ -7010,10 +6984,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43277.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C94" s="1" t="inlineStr">
         <is>
@@ -7032,45 +7006,39 @@
       </c>
       <c r="F94" s="1" t="inlineStr">
         <is>
-          <t>WQS-BS-BN1504-RO-M</t>
+          <t>WQS-BS-BN1504-KO-M</t>
         </is>
       </c>
       <c r="G94" s="1" t="inlineStr">
         <is>
-          <t>B0711B2NB8</t>
+          <t>B071DT5KD5</t>
         </is>
       </c>
       <c r="H94" s="4" t="n">
-        <v>204.0</v>
+        <v>228.0</v>
       </c>
       <c r="I94" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J94" s="6" t="n">
-        <v>0.004901960784313725</v>
-      </c>
-      <c r="K94" s="9" t="n">
-        <v>0.17</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K94"/>
       <c r="L94" s="9" t="n">
-        <v>0.17</v>
+        <v>0.0</v>
       </c>
       <c r="M94" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N94"/>
-      <c r="O94" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O94"/>
       <c r="P94" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q94" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R94" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R94"/>
       <c r="S94" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -7086,10 +7054,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>43276.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C95" s="1" t="inlineStr">
         <is>
@@ -7108,21 +7076,23 @@
       </c>
       <c r="F95" s="1" t="inlineStr">
         <is>
-          <t>WQS-BS-BN1504-RO-XL</t>
+          <t>WQS-BS-BN1504-KO-S</t>
         </is>
       </c>
       <c r="G95" s="1" t="inlineStr">
         <is>
-          <t>B071933NTR</t>
+          <t>B071KZMY6D</t>
         </is>
       </c>
       <c r="H95" s="4" t="n">
-        <v>0.0</v>
+        <v>1373.0</v>
       </c>
       <c r="I95" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="J95"/>
+      <c r="J95" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="K95"/>
       <c r="L95" s="9" t="n">
         <v>0.0</v>
@@ -7154,10 +7124,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>43279.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C96" s="1" t="inlineStr">
         <is>
@@ -7171,50 +7141,44 @@
       </c>
       <c r="E96" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-PW2049</t>
+          <t>WQS-BS-BN1504</t>
         </is>
       </c>
       <c r="F96" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-PW2049-B0-L</t>
+          <t>WQS-BS-BN1504-RO-M</t>
         </is>
       </c>
       <c r="G96" s="1" t="inlineStr">
         <is>
-          <t>B06W5KXHW2</t>
+          <t>B0711B2NB8</t>
         </is>
       </c>
       <c r="H96" s="4" t="n">
-        <v>12376.0</v>
+        <v>263.0</v>
       </c>
       <c r="I96" s="4" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="J96" s="6" t="n">
-        <v>0.003232062055591467</v>
-      </c>
-      <c r="K96" s="9" t="n">
-        <v>0.1735</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K96"/>
       <c r="L96" s="9" t="n">
-        <v>6.9399999999999995</v>
+        <v>0.0</v>
       </c>
       <c r="M96" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N96"/>
-      <c r="O96" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O96"/>
       <c r="P96" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q96" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R96" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R96"/>
       <c r="S96" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -7230,10 +7194,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43276.0</v>
+        <v>43287.0</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>43279.0</v>
+        <v>43287.0</v>
       </c>
       <c r="C97" s="1" t="inlineStr">
         <is>
@@ -7261,57 +7225,55 @@
         </is>
       </c>
       <c r="H97" s="4" t="n">
-        <v>11145.0</v>
+        <v>1500.0</v>
       </c>
       <c r="I97" s="4" t="n">
-        <v>50.0</v>
+        <v>11.0</v>
       </c>
       <c r="J97" s="6" t="n">
-        <v>0.004486316733961417</v>
+        <v>0.007333333333333333</v>
       </c>
       <c r="K97" s="9" t="n">
-        <v>0.17159999999999997</v>
+        <v>0.15727272727272726</v>
       </c>
       <c r="L97" s="9" t="n">
-        <v>8.579999999999998</v>
+        <v>1.73</v>
       </c>
       <c r="M97" s="9" t="n">
-        <v>30.14</v>
-      </c>
-      <c r="N97" s="6" t="n">
-        <v>0.28467153284671526</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N97"/>
       <c r="O97" s="5" t="n">
-        <v>3.5128205128205137</v>
+        <v>0.0</v>
       </c>
       <c r="P97" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q97" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="R97" s="6" t="n">
-        <v>0.04</v>
+        <v>0.0</v>
       </c>
       <c r="S97" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T97" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U97" s="9" t="n">
-        <v>13.55</v>
+        <v>0.0</v>
       </c>
       <c r="V97" s="9" t="n">
-        <v>16.59</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>43282.0</v>
+        <v>43288.0</v>
       </c>
       <c r="C98" s="1" t="inlineStr">
         <is>
@@ -7339,19 +7301,19 @@
         </is>
       </c>
       <c r="H98" s="4" t="n">
-        <v>2613.0</v>
+        <v>8420.0</v>
       </c>
       <c r="I98" s="4" t="n">
-        <v>22.0</v>
+        <v>69.0</v>
       </c>
       <c r="J98" s="6" t="n">
-        <v>0.008419441255262151</v>
+        <v>0.00819477434679335</v>
       </c>
       <c r="K98" s="9" t="n">
-        <v>0.16636363636363638</v>
+        <v>0.13956521739130434</v>
       </c>
       <c r="L98" s="9" t="n">
-        <v>3.66</v>
+        <v>9.629999999999999</v>
       </c>
       <c r="M98" s="9" t="n">
         <v>0.0</v>
@@ -7384,10 +7346,10 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43276.0</v>
+        <v>43285.0</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>43280.0</v>
+        <v>43286.0</v>
       </c>
       <c r="C99" s="1" t="inlineStr">
         <is>
@@ -7415,55 +7377,57 @@
         </is>
       </c>
       <c r="H99" s="4" t="n">
-        <v>2241.0</v>
+        <v>16723.0</v>
       </c>
       <c r="I99" s="4" t="n">
-        <v>12.0</v>
+        <v>66.0</v>
       </c>
       <c r="J99" s="6" t="n">
-        <v>0.00535475234270415</v>
+        <v>0.003946660288225797</v>
       </c>
       <c r="K99" s="9" t="n">
-        <v>0.11</v>
+        <v>0.16136363636363638</v>
       </c>
       <c r="L99" s="9" t="n">
-        <v>1.32</v>
+        <v>10.65</v>
       </c>
       <c r="M99" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N99"/>
+        <v>16.59</v>
+      </c>
+      <c r="N99" s="6" t="n">
+        <v>0.6419529837251357</v>
+      </c>
       <c r="O99" s="5" t="n">
-        <v>0.0</v>
+        <v>1.5577464788732394</v>
       </c>
       <c r="P99" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q99" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R99" s="6" t="n">
-        <v>0.0</v>
+        <v>0.015151515151515152</v>
       </c>
       <c r="S99" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T99" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U99" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V99" s="9" t="n">
-        <v>0.0</v>
+        <v>16.59</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>43282.0</v>
+        <v>43285.0</v>
       </c>
       <c r="C100" s="1" t="inlineStr">
         <is>
@@ -7491,28 +7455,28 @@
         </is>
       </c>
       <c r="H100" s="4" t="n">
-        <v>3616.0</v>
+        <v>8037.0</v>
       </c>
       <c r="I100" s="4" t="n">
-        <v>21.0</v>
+        <v>51.0</v>
       </c>
       <c r="J100" s="6" t="n">
-        <v>0.005807522123893806</v>
+        <v>0.006345651362448675</v>
       </c>
       <c r="K100" s="9" t="n">
-        <v>0.13523809523809524</v>
+        <v>0.14862745098039215</v>
       </c>
       <c r="L100" s="9" t="n">
-        <v>2.8400000000000003</v>
+        <v>7.58</v>
       </c>
       <c r="M100" s="9" t="n">
         <v>16.59</v>
       </c>
       <c r="N100" s="6" t="n">
-        <v>0.17118746232670282</v>
+        <v>0.45690174804098854</v>
       </c>
       <c r="O100" s="5" t="n">
-        <v>5.841549295774647</v>
+        <v>2.188654353562005</v>
       </c>
       <c r="P100" s="4" t="n">
         <v>1.0</v>
@@ -7521,7 +7485,7 @@
         <v>1.0</v>
       </c>
       <c r="R100" s="6" t="n">
-        <v>0.047619047619047616</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="S100" s="4" t="n">
         <v>0.0</v>
@@ -7538,10 +7502,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43279.0</v>
+        <v>43286.0</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>43281.0</v>
+        <v>43287.0</v>
       </c>
       <c r="C101" s="1" t="inlineStr">
         <is>
@@ -7560,53 +7524,55 @@
       </c>
       <c r="F101" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-PW2049-GR-S</t>
+          <t>YZ-BS-PW2049-GR-XL</t>
         </is>
       </c>
       <c r="G101" s="1" t="inlineStr">
         <is>
-          <t>B06X95KC6P</t>
+          <t>B06VY9752S</t>
         </is>
       </c>
       <c r="H101" s="4" t="n">
-        <v>3723.0</v>
+        <v>3190.0</v>
       </c>
       <c r="I101" s="4" t="n">
-        <v>15.0</v>
+        <v>40.0</v>
       </c>
       <c r="J101" s="6" t="n">
-        <v>0.0040290088638195</v>
+        <v>0.012539184952978056</v>
       </c>
       <c r="K101" s="9" t="n">
-        <v>0.16799999999999998</v>
+        <v>0.16399999999999998</v>
       </c>
       <c r="L101" s="9" t="n">
-        <v>2.5199999999999996</v>
+        <v>6.56</v>
       </c>
       <c r="M101" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N101"/>
+        <v>16.59</v>
+      </c>
+      <c r="N101" s="6" t="n">
+        <v>0.39541892706449666</v>
+      </c>
       <c r="O101" s="5" t="n">
-        <v>0.0</v>
+        <v>2.5289634146341466</v>
       </c>
       <c r="P101" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q101" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R101" s="6" t="n">
-        <v>0.0</v>
+        <v>0.025</v>
       </c>
       <c r="S101" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T101" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U101" s="9" t="n">
-        <v>0.0</v>
+        <v>16.59</v>
       </c>
       <c r="V101" s="9" t="n">
         <v>0.0</v>
@@ -7614,10 +7580,10 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C102" s="1" t="inlineStr">
         <is>
@@ -7645,28 +7611,28 @@
         </is>
       </c>
       <c r="H102" s="4" t="n">
-        <v>9429.0</v>
+        <v>27072.0</v>
       </c>
       <c r="I102" s="4" t="n">
-        <v>82.0</v>
+        <v>212.0</v>
       </c>
       <c r="J102" s="6" t="n">
-        <v>0.008696574398133419</v>
+        <v>0.007830969267139479</v>
       </c>
       <c r="K102" s="9" t="n">
-        <v>0.15109756097560975</v>
+        <v>0.1465566037735849</v>
       </c>
       <c r="L102" s="9" t="n">
-        <v>12.39</v>
+        <v>31.07</v>
       </c>
       <c r="M102" s="9" t="n">
         <v>33.18</v>
       </c>
       <c r="N102" s="6" t="n">
-        <v>0.3734177215189874</v>
+        <v>0.936407474382158</v>
       </c>
       <c r="O102" s="5" t="n">
-        <v>2.6779661016949152</v>
+        <v>1.0679111683295783</v>
       </c>
       <c r="P102" s="4" t="n">
         <v>2.0</v>
@@ -7675,7 +7641,7 @@
         <v>2.0</v>
       </c>
       <c r="R102" s="6" t="n">
-        <v>0.024390243902439025</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="S102" s="4" t="n">
         <v>0.0</v>
@@ -7692,10 +7658,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43276.0</v>
+        <v>43285.0</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>43279.0</v>
+        <v>43285.0</v>
       </c>
       <c r="C103" s="1" t="inlineStr">
         <is>
@@ -7723,36 +7689,28 @@
         </is>
       </c>
       <c r="H103" s="4" t="n">
-        <v>10917.0</v>
+        <v>0.0</v>
       </c>
       <c r="I103" s="4" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="J103" s="6" t="n">
-        <v>0.0032976092333058533</v>
-      </c>
-      <c r="K103" s="9" t="n">
-        <v>0.15666666666666668</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J103"/>
+      <c r="K103"/>
       <c r="L103" s="9" t="n">
-        <v>5.640000000000001</v>
+        <v>0.0</v>
       </c>
       <c r="M103" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N103"/>
-      <c r="O103" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O103"/>
       <c r="P103" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q103" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R103" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R103"/>
       <c r="S103" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -7768,10 +7726,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C104" s="1" t="inlineStr">
         <is>
@@ -7799,57 +7757,55 @@
         </is>
       </c>
       <c r="H104" s="4" t="n">
-        <v>16631.0</v>
+        <v>15096.0</v>
       </c>
       <c r="I104" s="4" t="n">
-        <v>144.0</v>
+        <v>137.0</v>
       </c>
       <c r="J104" s="6" t="n">
-        <v>0.008658529252600565</v>
+        <v>0.009075251722310546</v>
       </c>
       <c r="K104" s="9" t="n">
-        <v>0.17166666666666666</v>
+        <v>0.1697810218978102</v>
       </c>
       <c r="L104" s="9" t="n">
-        <v>24.72</v>
+        <v>23.259999999999998</v>
       </c>
       <c r="M104" s="9" t="n">
-        <v>49.769999999999996</v>
-      </c>
-      <c r="N104" s="6" t="n">
-        <v>0.49668474984930683</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N104"/>
       <c r="O104" s="5" t="n">
-        <v>2.0133495145631066</v>
+        <v>0.0</v>
       </c>
       <c r="P104" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q104" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="R104" s="6" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="S104" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T104" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="U104" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V104" s="9" t="n">
-        <v>49.769999999999996</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43276.0</v>
+        <v>43284.0</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>43280.0</v>
+        <v>43285.0</v>
       </c>
       <c r="C105" s="1" t="inlineStr">
         <is>
@@ -7877,19 +7833,19 @@
         </is>
       </c>
       <c r="H105" s="4" t="n">
-        <v>1932.0</v>
+        <v>768.0</v>
       </c>
       <c r="I105" s="4" t="n">
-        <v>14.0</v>
+        <v>3.0</v>
       </c>
       <c r="J105" s="6" t="n">
-        <v>0.007246376811594203</v>
+        <v>0.00390625</v>
       </c>
       <c r="K105" s="9" t="n">
-        <v>0.17357142857142857</v>
+        <v>0.17666666666666667</v>
       </c>
       <c r="L105" s="9" t="n">
-        <v>2.43</v>
+        <v>0.53</v>
       </c>
       <c r="M105" s="9" t="n">
         <v>0.0</v>
@@ -7922,10 +7878,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C106" s="1" t="inlineStr">
         <is>
@@ -7953,19 +7909,19 @@
         </is>
       </c>
       <c r="H106" s="4" t="n">
-        <v>4752.0</v>
+        <v>496.0</v>
       </c>
       <c r="I106" s="4" t="n">
-        <v>36.0</v>
+        <v>1.0</v>
       </c>
       <c r="J106" s="6" t="n">
-        <v>0.007575757575757576</v>
+        <v>0.0020161290322580645</v>
       </c>
       <c r="K106" s="9" t="n">
-        <v>0.18333333333333332</v>
+        <v>0.18</v>
       </c>
       <c r="L106" s="9" t="n">
-        <v>6.6</v>
+        <v>0.18</v>
       </c>
       <c r="M106" s="9" t="n">
         <v>0.0</v>
@@ -7998,10 +7954,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>43282.0</v>
+        <v>43286.0</v>
       </c>
       <c r="C107" s="1" t="inlineStr">
         <is>
@@ -8029,55 +7985,57 @@
         </is>
       </c>
       <c r="H107" s="4" t="n">
-        <v>19032.0</v>
+        <v>6577.0</v>
       </c>
       <c r="I107" s="4" t="n">
-        <v>72.0</v>
+        <v>69.0</v>
       </c>
       <c r="J107" s="6" t="n">
-        <v>0.0037831021437578815</v>
+        <v>0.01049110536718869</v>
       </c>
       <c r="K107" s="9" t="n">
-        <v>0.15847222222222224</v>
+        <v>0.15985507246376812</v>
       </c>
       <c r="L107" s="9" t="n">
-        <v>11.41</v>
+        <v>11.030000000000001</v>
       </c>
       <c r="M107" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N107"/>
+        <v>46.730000000000004</v>
+      </c>
+      <c r="N107" s="6" t="n">
+        <v>0.23603680719024178</v>
+      </c>
       <c r="O107" s="5" t="n">
-        <v>0.0</v>
+        <v>4.236627379873073</v>
       </c>
       <c r="P107" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q107" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="R107" s="6" t="n">
-        <v>0.0</v>
+        <v>0.043478260869565216</v>
       </c>
       <c r="S107" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T107" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U107" s="9" t="n">
-        <v>0.0</v>
+        <v>16.59</v>
       </c>
       <c r="V107" s="9" t="n">
-        <v>0.0</v>
+        <v>30.14</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>43282.0</v>
+        <v>43288.0</v>
       </c>
       <c r="C108" s="1" t="inlineStr">
         <is>
@@ -8105,57 +8063,55 @@
         </is>
       </c>
       <c r="H108" s="4" t="n">
-        <v>18878.0</v>
+        <v>14503.0</v>
       </c>
       <c r="I108" s="4" t="n">
-        <v>158.0</v>
+        <v>107.0</v>
       </c>
       <c r="J108" s="6" t="n">
-        <v>0.008369530670621888</v>
+        <v>0.007377783906777907</v>
       </c>
       <c r="K108" s="9" t="n">
-        <v>0.16518987341772154</v>
+        <v>0.14906542056074765</v>
       </c>
       <c r="L108" s="9" t="n">
-        <v>26.1</v>
+        <v>15.95</v>
       </c>
       <c r="M108" s="9" t="n">
-        <v>93.46</v>
-      </c>
-      <c r="N108" s="6" t="n">
-        <v>0.27926385619516375</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N108"/>
       <c r="O108" s="5" t="n">
-        <v>3.580842911877394</v>
+        <v>0.0</v>
       </c>
       <c r="P108" s="4" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q108" s="4" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="R108" s="6" t="n">
-        <v>0.0379746835443038</v>
+        <v>0.0</v>
       </c>
       <c r="S108" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T108" s="4" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="U108" s="9" t="n">
-        <v>13.55</v>
+        <v>0.0</v>
       </c>
       <c r="V108" s="9" t="n">
-        <v>79.91</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C109" s="1" t="inlineStr">
         <is>
@@ -8183,57 +8139,57 @@
         </is>
       </c>
       <c r="H109" s="4" t="n">
-        <v>34639.0</v>
+        <v>11254.0</v>
       </c>
       <c r="I109" s="4" t="n">
-        <v>91.0</v>
+        <v>82.0</v>
       </c>
       <c r="J109" s="6" t="n">
-        <v>0.002627096625191258</v>
+        <v>0.007286298205082638</v>
       </c>
       <c r="K109" s="9" t="n">
-        <v>0.1665934065934066</v>
+        <v>0.14195121951219514</v>
       </c>
       <c r="L109" s="9" t="n">
-        <v>15.160000000000002</v>
+        <v>11.64</v>
       </c>
       <c r="M109" s="9" t="n">
-        <v>16.68</v>
+        <v>33.18</v>
       </c>
       <c r="N109" s="6" t="n">
-        <v>0.9088729016786572</v>
+        <v>0.35081374321880654</v>
       </c>
       <c r="O109" s="5" t="n">
-        <v>1.100263852242744</v>
+        <v>2.8505154639175254</v>
       </c>
       <c r="P109" s="4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q109" s="4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R109" s="6" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.024390243902439025</v>
       </c>
       <c r="S109" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T109" s="4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U109" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V109" s="9" t="n">
-        <v>16.68</v>
+        <v>33.18</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C110" s="1" t="inlineStr">
         <is>
@@ -8261,19 +8217,19 @@
         </is>
       </c>
       <c r="H110" s="4" t="n">
-        <v>3554.0</v>
+        <v>7013.0</v>
       </c>
       <c r="I110" s="4" t="n">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="J110" s="6" t="n">
-        <v>0.005908835115362971</v>
+        <v>0.003992585198916298</v>
       </c>
       <c r="K110" s="9" t="n">
-        <v>0.12809523809523807</v>
+        <v>0.16428571428571428</v>
       </c>
       <c r="L110" s="9" t="n">
-        <v>2.6899999999999995</v>
+        <v>4.6</v>
       </c>
       <c r="M110" s="9" t="n">
         <v>0.0</v>
@@ -8306,10 +8262,10 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>43282.0</v>
+        <v>43286.0</v>
       </c>
       <c r="C111" s="1" t="inlineStr">
         <is>
@@ -8337,19 +8293,19 @@
         </is>
       </c>
       <c r="H111" s="4" t="n">
-        <v>1117.0</v>
+        <v>655.0</v>
       </c>
       <c r="I111" s="4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J111" s="6" t="n">
-        <v>0.0026857654431512983</v>
+        <v>0.0015267175572519084</v>
       </c>
       <c r="K111" s="9" t="n">
-        <v>0.10333333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="L111" s="9" t="n">
-        <v>0.31</v>
+        <v>0.08</v>
       </c>
       <c r="M111" s="9" t="n">
         <v>0.0</v>
@@ -8382,10 +8338,10 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43276.0</v>
+        <v>43286.0</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>43278.0</v>
+        <v>43288.0</v>
       </c>
       <c r="C112" s="1" t="inlineStr">
         <is>
@@ -8413,19 +8369,19 @@
         </is>
       </c>
       <c r="H112" s="4" t="n">
-        <v>918.0</v>
+        <v>3569.0</v>
       </c>
       <c r="I112" s="4" t="n">
-        <v>4.0</v>
+        <v>44.0</v>
       </c>
       <c r="J112" s="6" t="n">
-        <v>0.004357298474945534</v>
+        <v>0.012328383300644438</v>
       </c>
       <c r="K112" s="9" t="n">
-        <v>0.16749999999999998</v>
+        <v>0.15159090909090908</v>
       </c>
       <c r="L112" s="9" t="n">
-        <v>0.6699999999999999</v>
+        <v>6.67</v>
       </c>
       <c r="M112" s="9" t="n">
         <v>0.0</v>
@@ -8458,10 +8414,10 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43281.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C113" s="1" t="inlineStr">
         <is>
@@ -8489,36 +8445,30 @@
         </is>
       </c>
       <c r="H113" s="4" t="n">
-        <v>15816.0</v>
+        <v>24.0</v>
       </c>
       <c r="I113" s="4" t="n">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c r="J113" s="6" t="n">
-        <v>0.0017071320182094083</v>
-      </c>
-      <c r="K113" s="9" t="n">
-        <v>0.13555555555555554</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K113"/>
       <c r="L113" s="9" t="n">
-        <v>3.6599999999999997</v>
+        <v>0.0</v>
       </c>
       <c r="M113" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N113"/>
-      <c r="O113" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O113"/>
       <c r="P113" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q113" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R113" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R113"/>
       <c r="S113" s="4" t="n">
         <v>0.0</v>
       </c>
